--- a/static/documentos/chequeo_2017.xlsx
+++ b/static/documentos/chequeo_2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="3" xr2:uid="{8CBB1552-A8E8-456D-9753-EEF3C368F3D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" xr2:uid="{8CBB1552-A8E8-456D-9753-EEF3C368F3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="InnovaTIC" sheetId="1" r:id="rId1"/>
@@ -1214,7 +1214,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,12 +1248,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor rgb="FFBDD7EE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
         <bgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
@@ -1343,20 +1337,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -1384,7 +1366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1520,17 +1502,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1705,7 +1676,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1739,386 +1710,374 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2440,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AA5E57-F210-4AB8-BD1D-1A708E7BCDFF}">
   <dimension ref="A1:CZ5"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2450,561 +2409,561 @@
       <c r="Y1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12" t="s">
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="14" t="s">
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="16" t="s">
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="77"/>
+      <c r="BN1" s="77"/>
+      <c r="BO1" s="77"/>
+      <c r="BP1" s="77"/>
+      <c r="BQ1" s="77"/>
+      <c r="BR1" s="77"/>
+      <c r="BS1" s="77"/>
+      <c r="BT1" s="77"/>
+      <c r="BU1" s="77"/>
+      <c r="BV1" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="BW1" s="15"/>
-      <c r="BX1" s="15"/>
-      <c r="BY1" s="15"/>
-      <c r="BZ1" s="15"/>
-      <c r="CA1" s="15"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
-      <c r="CJ1" s="15"/>
-      <c r="CK1" s="15"/>
-      <c r="CL1" s="15"/>
-      <c r="CM1" s="15"/>
-      <c r="CN1" s="15"/>
-      <c r="CO1" s="17" t="s">
+      <c r="BW1" s="77"/>
+      <c r="BX1" s="77"/>
+      <c r="BY1" s="77"/>
+      <c r="BZ1" s="77"/>
+      <c r="CA1" s="77"/>
+      <c r="CB1" s="77"/>
+      <c r="CC1" s="77"/>
+      <c r="CD1" s="77"/>
+      <c r="CE1" s="77"/>
+      <c r="CF1" s="77"/>
+      <c r="CG1" s="77"/>
+      <c r="CH1" s="77"/>
+      <c r="CI1" s="77"/>
+      <c r="CJ1" s="77"/>
+      <c r="CK1" s="77"/>
+      <c r="CL1" s="77"/>
+      <c r="CM1" s="77"/>
+      <c r="CN1" s="77"/>
+      <c r="CO1" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="CP1" s="15"/>
-      <c r="CQ1" s="15"/>
-      <c r="CR1" s="15"/>
-      <c r="CS1" s="15"/>
-      <c r="CT1" s="15"/>
-      <c r="CU1" s="15"/>
-      <c r="CV1" s="15"/>
+      <c r="CP1" s="77"/>
+      <c r="CQ1" s="77"/>
+      <c r="CR1" s="77"/>
+      <c r="CS1" s="77"/>
+      <c r="CT1" s="77"/>
+      <c r="CU1" s="77"/>
+      <c r="CV1" s="77"/>
     </row>
     <row r="2" spans="1:104" ht="16.5">
       <c r="Y2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18" t="s">
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="20" t="s">
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="20" t="s">
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="20" t="s">
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="23" t="s">
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="23" t="s">
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="24"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="23" t="s">
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="23" t="s">
+      <c r="BK2" s="53"/>
+      <c r="BL2" s="53"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="BR2" s="24"/>
-      <c r="BS2" s="24"/>
-      <c r="BT2" s="24"/>
-      <c r="BU2" s="24"/>
-      <c r="BV2" s="23" t="s">
+      <c r="BR2" s="53"/>
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="BW2" s="24"/>
-      <c r="BX2" s="24"/>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="24"/>
-      <c r="CA2" s="23" t="s">
+      <c r="BW2" s="53"/>
+      <c r="BX2" s="53"/>
+      <c r="BY2" s="53"/>
+      <c r="BZ2" s="53"/>
+      <c r="CA2" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="CB2" s="24"/>
-      <c r="CC2" s="24"/>
-      <c r="CD2" s="24"/>
-      <c r="CE2" s="25" t="s">
+      <c r="CB2" s="53"/>
+      <c r="CC2" s="53"/>
+      <c r="CD2" s="53"/>
+      <c r="CE2" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="CF2" s="24"/>
-      <c r="CG2" s="24"/>
-      <c r="CH2" s="24"/>
-      <c r="CI2" s="24"/>
-      <c r="CJ2" s="25" t="s">
+      <c r="CF2" s="53"/>
+      <c r="CG2" s="53"/>
+      <c r="CH2" s="53"/>
+      <c r="CI2" s="53"/>
+      <c r="CJ2" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="CK2" s="24"/>
-      <c r="CL2" s="24"/>
-      <c r="CM2" s="24"/>
-      <c r="CN2" s="24"/>
-      <c r="CO2" s="25" t="s">
+      <c r="CK2" s="53"/>
+      <c r="CL2" s="53"/>
+      <c r="CM2" s="53"/>
+      <c r="CN2" s="53"/>
+      <c r="CO2" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="CP2" s="24"/>
-      <c r="CQ2" s="24"/>
-      <c r="CR2" s="24"/>
-      <c r="CS2" s="24"/>
-      <c r="CT2" s="24"/>
-      <c r="CU2" s="25" t="s">
+      <c r="CP2" s="53"/>
+      <c r="CQ2" s="53"/>
+      <c r="CR2" s="53"/>
+      <c r="CS2" s="53"/>
+      <c r="CT2" s="53"/>
+      <c r="CU2" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="CV2" s="24"/>
+      <c r="CV2" s="53"/>
     </row>
     <row r="3" spans="1:104" ht="16.5">
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="26">
+      <c r="Z3" s="71">
         <v>0</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71">
         <v>1</v>
       </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="28">
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="15">
         <v>2</v>
       </c>
-      <c r="AF3" s="29">
+      <c r="AF3" s="16">
         <v>3</v>
       </c>
-      <c r="AG3" s="30">
+      <c r="AG3" s="72">
         <v>4</v>
       </c>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="29">
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="16">
         <v>5</v>
       </c>
-      <c r="AJ3" s="28">
+      <c r="AJ3" s="15">
         <v>6</v>
       </c>
-      <c r="AK3" s="32">
+      <c r="AK3" s="68">
         <v>7</v>
       </c>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="28">
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="15">
         <v>8</v>
       </c>
-      <c r="AN3" s="32">
+      <c r="AN3" s="68">
         <v>9</v>
       </c>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="28">
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="15">
         <v>10</v>
       </c>
-      <c r="AR3" s="32">
+      <c r="AR3" s="68">
         <v>11</v>
       </c>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="28">
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="15">
         <v>12</v>
       </c>
-      <c r="AU3" s="32">
+      <c r="AU3" s="68">
         <v>13</v>
       </c>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="28">
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="15">
         <v>14</v>
       </c>
-      <c r="AX3" s="29">
+      <c r="AX3" s="16">
         <v>15</v>
       </c>
-      <c r="AY3" s="28">
+      <c r="AY3" s="15">
         <v>16</v>
       </c>
-      <c r="AZ3" s="33">
+      <c r="AZ3" s="70">
         <v>17</v>
       </c>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="28">
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="15">
         <v>18</v>
       </c>
-      <c r="BC3" s="29">
+      <c r="BC3" s="16">
         <v>19</v>
       </c>
-      <c r="BD3" s="28">
+      <c r="BD3" s="15">
         <v>20</v>
       </c>
-      <c r="BE3" s="33">
+      <c r="BE3" s="70">
         <v>21</v>
       </c>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="34">
+      <c r="BF3" s="53"/>
+      <c r="BG3" s="65">
         <v>22</v>
       </c>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="29">
+      <c r="BH3" s="53"/>
+      <c r="BI3" s="16">
         <v>23</v>
       </c>
-      <c r="BJ3" s="34">
+      <c r="BJ3" s="65">
         <v>24</v>
       </c>
-      <c r="BK3" s="24"/>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="33">
+      <c r="BK3" s="53"/>
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="70">
         <v>25</v>
       </c>
-      <c r="BN3" s="24"/>
-      <c r="BO3" s="28">
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="15">
         <v>26</v>
       </c>
-      <c r="BP3" s="29">
+      <c r="BP3" s="16">
         <v>27</v>
       </c>
-      <c r="BQ3" s="35">
+      <c r="BQ3" s="64">
         <v>28</v>
       </c>
-      <c r="BR3" s="24"/>
-      <c r="BS3" s="36">
+      <c r="BR3" s="53"/>
+      <c r="BS3" s="17">
         <v>29</v>
       </c>
-      <c r="BT3" s="37">
+      <c r="BT3" s="18">
         <v>30</v>
       </c>
-      <c r="BU3" s="36">
+      <c r="BU3" s="17">
         <v>31</v>
       </c>
-      <c r="BV3" s="34">
+      <c r="BV3" s="65">
         <v>32</v>
       </c>
-      <c r="BW3" s="24"/>
-      <c r="BX3" s="29">
+      <c r="BW3" s="53"/>
+      <c r="BX3" s="16">
         <v>33</v>
       </c>
-      <c r="BY3" s="34">
+      <c r="BY3" s="65">
         <v>34</v>
       </c>
-      <c r="BZ3" s="24"/>
-      <c r="CA3" s="38">
+      <c r="BZ3" s="53"/>
+      <c r="CA3" s="66">
         <v>35</v>
       </c>
-      <c r="CB3" s="24"/>
-      <c r="CC3" s="39">
+      <c r="CB3" s="53"/>
+      <c r="CC3" s="19">
         <v>36</v>
       </c>
-      <c r="CD3" s="40">
+      <c r="CD3" s="20">
         <v>37</v>
       </c>
-      <c r="CE3" s="41">
+      <c r="CE3" s="67">
         <v>38</v>
       </c>
-      <c r="CF3" s="24"/>
-      <c r="CG3" s="42">
+      <c r="CF3" s="53"/>
+      <c r="CG3" s="21">
         <v>39</v>
       </c>
-      <c r="CH3" s="41">
+      <c r="CH3" s="67">
         <v>40</v>
       </c>
-      <c r="CI3" s="24"/>
-      <c r="CJ3" s="43">
+      <c r="CI3" s="53"/>
+      <c r="CJ3" s="58">
         <v>41</v>
       </c>
-      <c r="CK3" s="24"/>
-      <c r="CL3" s="44">
+      <c r="CK3" s="53"/>
+      <c r="CL3" s="22">
         <v>42</v>
       </c>
-      <c r="CM3" s="42">
+      <c r="CM3" s="21">
         <v>43</v>
       </c>
-      <c r="CN3" s="44">
+      <c r="CN3" s="22">
         <v>44</v>
       </c>
-      <c r="CO3" s="43">
+      <c r="CO3" s="58">
         <v>45</v>
       </c>
-      <c r="CP3" s="24"/>
-      <c r="CQ3" s="44">
+      <c r="CP3" s="53"/>
+      <c r="CQ3" s="22">
         <v>46</v>
       </c>
-      <c r="CR3" s="45">
+      <c r="CR3" s="59">
         <v>47</v>
       </c>
-      <c r="CS3" s="24"/>
-      <c r="CT3" s="42">
+      <c r="CS3" s="53"/>
+      <c r="CT3" s="21">
         <v>48</v>
       </c>
-      <c r="CU3" s="45">
+      <c r="CU3" s="59">
         <v>49</v>
       </c>
-      <c r="CV3" s="24"/>
+      <c r="CV3" s="53"/>
     </row>
     <row r="4" spans="1:104" ht="108.75" customHeight="1">
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="46" t="s">
+      <c r="Z4" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46" t="s">
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="47" t="s">
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="AF4" s="40" t="s">
+      <c r="AF4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="48" t="s">
+      <c r="AG4" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="40" t="s">
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="AJ4" s="39" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AK4" s="50" t="s">
+      <c r="AK4" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="39" t="s">
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AN4" s="50" t="s">
+      <c r="AN4" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="39" t="s">
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AR4" s="50" t="s">
+      <c r="AR4" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="39" t="s">
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AU4" s="50" t="s">
+      <c r="AU4" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="39" t="s">
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="AX4" s="40" t="s">
+      <c r="AX4" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="AY4" s="39" t="s">
+      <c r="AY4" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="AZ4" s="53" t="s">
+      <c r="AZ4" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="39" t="s">
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="BC4" s="40" t="s">
+      <c r="BC4" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="BD4" s="39" t="s">
+      <c r="BD4" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="BE4" s="53" t="s">
+      <c r="BE4" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="BF4" s="24"/>
-      <c r="BG4" s="54" t="s">
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="40" t="s">
+      <c r="BH4" s="53"/>
+      <c r="BI4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="BJ4" s="54" t="s">
+      <c r="BJ4" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="BK4" s="24"/>
-      <c r="BL4" s="24"/>
-      <c r="BM4" s="53" t="s">
+      <c r="BK4" s="53"/>
+      <c r="BL4" s="53"/>
+      <c r="BM4" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="BN4" s="24"/>
-      <c r="BO4" s="39" t="s">
+      <c r="BN4" s="53"/>
+      <c r="BO4" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="BP4" s="40" t="s">
+      <c r="BP4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="BQ4" s="54" t="s">
+      <c r="BQ4" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="BR4" s="24"/>
-      <c r="BS4" s="40" t="s">
+      <c r="BR4" s="53"/>
+      <c r="BS4" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="BT4" s="39" t="s">
+      <c r="BT4" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="BU4" s="40" t="s">
+      <c r="BU4" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="BV4" s="54" t="s">
+      <c r="BV4" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="BW4" s="24"/>
-      <c r="BX4" s="40" t="s">
+      <c r="BW4" s="53"/>
+      <c r="BX4" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="BY4" s="54" t="s">
+      <c r="BY4" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="BZ4" s="24"/>
-      <c r="CA4" s="53" t="s">
+      <c r="BZ4" s="53"/>
+      <c r="CA4" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="CB4" s="24"/>
-      <c r="CC4" s="39" t="s">
+      <c r="CB4" s="53"/>
+      <c r="CC4" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="CD4" s="40" t="s">
+      <c r="CD4" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="CE4" s="54" t="s">
+      <c r="CE4" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="CF4" s="24"/>
-      <c r="CG4" s="40" t="s">
+      <c r="CF4" s="53"/>
+      <c r="CG4" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="CH4" s="54" t="s">
+      <c r="CH4" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="CI4" s="24"/>
-      <c r="CJ4" s="53" t="s">
+      <c r="CI4" s="53"/>
+      <c r="CJ4" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="CK4" s="24"/>
-      <c r="CL4" s="39" t="s">
+      <c r="CK4" s="53"/>
+      <c r="CL4" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="CM4" s="40" t="s">
+      <c r="CM4" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="CN4" s="39" t="s">
+      <c r="CN4" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="CO4" s="53" t="s">
+      <c r="CO4" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="CP4" s="24"/>
-      <c r="CQ4" s="39" t="s">
+      <c r="CP4" s="53"/>
+      <c r="CQ4" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="CR4" s="55" t="s">
+      <c r="CR4" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="CS4" s="24"/>
-      <c r="CT4" s="40" t="s">
+      <c r="CS4" s="53"/>
+      <c r="CT4" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="CU4" s="55" t="s">
+      <c r="CU4" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="CV4" s="24"/>
+      <c r="CV4" s="53"/>
     </row>
     <row r="5" spans="1:104" ht="144.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -3085,7 +3044,7 @@
       <c r="Z5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AA5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="AB5" s="6" t="s">
@@ -3100,7 +3059,7 @@
       <c r="AE5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AF5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AG5" s="9" t="s">
@@ -3121,7 +3080,7 @@
       <c r="AL5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM5" s="9" t="s">
+      <c r="AM5" s="6" t="s">
         <v>38</v>
       </c>
       <c r="AN5" s="9" t="s">
@@ -3136,7 +3095,7 @@
       <c r="AQ5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AR5" s="9" t="s">
+      <c r="AR5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="AS5" s="6" t="s">
@@ -3163,7 +3122,7 @@
       <c r="AZ5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="BA5" s="9" t="s">
+      <c r="BA5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="BB5" s="7" t="s">
@@ -3172,7 +3131,7 @@
       <c r="BC5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BD5" s="10" t="s">
+      <c r="BD5" s="6" t="s">
         <v>55</v>
       </c>
       <c r="BE5" s="9" t="s">
@@ -3184,7 +3143,7 @@
       <c r="BG5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BH5" s="9" t="s">
+      <c r="BH5" s="7" t="s">
         <v>53</v>
       </c>
       <c r="BI5" s="6" t="s">
@@ -3196,7 +3155,7 @@
       <c r="BK5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BL5" s="9" t="s">
+      <c r="BL5" s="6" t="s">
         <v>53</v>
       </c>
       <c r="BM5" s="6" t="s">
@@ -3286,7 +3245,7 @@
       <c r="CO5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="CP5" s="9" t="s">
+      <c r="CP5" s="6" t="s">
         <v>89</v>
       </c>
       <c r="CQ5" s="6" t="s">
@@ -3304,7 +3263,7 @@
       <c r="CU5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="CV5" s="11" t="s">
+      <c r="CV5" s="10" t="s">
         <v>95</v>
       </c>
       <c r="CW5" s="6" t="s">
@@ -3322,55 +3281,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="CJ4:CK4"/>
-    <mergeCell ref="CO4:CP4"/>
-    <mergeCell ref="CR4:CS4"/>
-    <mergeCell ref="CU4:CV4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CH4:CI4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="CJ3:CK3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CR3:CS3"/>
-    <mergeCell ref="CU3:CV3"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CH3:CI3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="BV2:BZ2"/>
-    <mergeCell ref="CA2:CD2"/>
-    <mergeCell ref="CE2:CI2"/>
-    <mergeCell ref="CJ2:CN2"/>
-    <mergeCell ref="CO2:CT2"/>
     <mergeCell ref="CU2:CV2"/>
     <mergeCell ref="AZ1:BU1"/>
     <mergeCell ref="BV1:CN1"/>
@@ -3382,6 +3292,55 @@
     <mergeCell ref="BE2:BI2"/>
     <mergeCell ref="BJ2:BP2"/>
     <mergeCell ref="BQ2:BU2"/>
+    <mergeCell ref="BV2:BZ2"/>
+    <mergeCell ref="CA2:CD2"/>
+    <mergeCell ref="CE2:CI2"/>
+    <mergeCell ref="CJ2:CN2"/>
+    <mergeCell ref="CO2:CT2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BV3:BW3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="CJ3:CK3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CR3:CS3"/>
+    <mergeCell ref="CU3:CV3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CH3:CI3"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="CJ4:CK4"/>
+    <mergeCell ref="CO4:CP4"/>
+    <mergeCell ref="CR4:CS4"/>
+    <mergeCell ref="CU4:CV4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CH4:CI4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3401,499 +3360,499 @@
       <c r="Y1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="58" t="s">
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="60" t="s">
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59"/>
-      <c r="BJ1" s="59"/>
-      <c r="BK1" s="59"/>
-      <c r="BL1" s="61" t="s">
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="84"/>
+      <c r="AZ1" s="84"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="84"/>
+      <c r="BE1" s="84"/>
+      <c r="BF1" s="84"/>
+      <c r="BG1" s="84"/>
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="84"/>
+      <c r="BK1" s="84"/>
+      <c r="BL1" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="59"/>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
-      <c r="BS1" s="59"/>
-      <c r="BT1" s="59"/>
-      <c r="BU1" s="59"/>
-      <c r="BV1" s="59"/>
-      <c r="BW1" s="59"/>
-      <c r="BX1" s="59"/>
-      <c r="BY1" s="59"/>
-      <c r="BZ1" s="59"/>
-      <c r="CA1" s="59"/>
-      <c r="CB1" s="59"/>
-      <c r="CC1" s="62" t="s">
+      <c r="BM1" s="84"/>
+      <c r="BN1" s="84"/>
+      <c r="BO1" s="84"/>
+      <c r="BP1" s="84"/>
+      <c r="BQ1" s="84"/>
+      <c r="BR1" s="84"/>
+      <c r="BS1" s="84"/>
+      <c r="BT1" s="84"/>
+      <c r="BU1" s="84"/>
+      <c r="BV1" s="84"/>
+      <c r="BW1" s="84"/>
+      <c r="BX1" s="84"/>
+      <c r="BY1" s="84"/>
+      <c r="BZ1" s="84"/>
+      <c r="CA1" s="84"/>
+      <c r="CB1" s="84"/>
+      <c r="CC1" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="CD1" s="59"/>
-      <c r="CE1" s="59"/>
-      <c r="CF1" s="59"/>
-      <c r="CG1" s="59"/>
-      <c r="CH1" s="59"/>
-      <c r="CI1" s="59"/>
-      <c r="CJ1" s="59"/>
-      <c r="CK1" s="59"/>
-      <c r="CL1" s="59"/>
+      <c r="CD1" s="84"/>
+      <c r="CE1" s="84"/>
+      <c r="CF1" s="84"/>
+      <c r="CG1" s="84"/>
+      <c r="CH1" s="84"/>
+      <c r="CI1" s="84"/>
+      <c r="CJ1" s="84"/>
+      <c r="CK1" s="84"/>
+      <c r="CL1" s="84"/>
     </row>
     <row r="2" spans="1:94" ht="16.5">
       <c r="Y2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="63" t="s">
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="64" t="s">
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="64" t="s">
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="64" t="s">
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="64" t="s">
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="64" t="s">
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="64" t="s">
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="64" t="s">
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="BH2" s="59"/>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="59"/>
-      <c r="BL2" s="64" t="s">
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="84"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="59"/>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="64" t="s">
+      <c r="BM2" s="84"/>
+      <c r="BN2" s="84"/>
+      <c r="BO2" s="84"/>
+      <c r="BP2" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="BQ2" s="59"/>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="59"/>
-      <c r="BT2" s="64" t="s">
+      <c r="BQ2" s="84"/>
+      <c r="BR2" s="84"/>
+      <c r="BS2" s="84"/>
+      <c r="BT2" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="59"/>
-      <c r="BW2" s="59"/>
-      <c r="BX2" s="64" t="s">
+      <c r="BU2" s="84"/>
+      <c r="BV2" s="84"/>
+      <c r="BW2" s="84"/>
+      <c r="BX2" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="BY2" s="59"/>
-      <c r="BZ2" s="59"/>
-      <c r="CA2" s="59"/>
-      <c r="CB2" s="59"/>
-      <c r="CC2" s="64" t="s">
+      <c r="BY2" s="84"/>
+      <c r="BZ2" s="84"/>
+      <c r="CA2" s="84"/>
+      <c r="CB2" s="84"/>
+      <c r="CC2" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="CD2" s="59"/>
-      <c r="CE2" s="59"/>
-      <c r="CF2" s="59"/>
-      <c r="CG2" s="59"/>
-      <c r="CH2" s="59"/>
-      <c r="CI2" s="59"/>
-      <c r="CJ2" s="64" t="s">
+      <c r="CD2" s="84"/>
+      <c r="CE2" s="84"/>
+      <c r="CF2" s="84"/>
+      <c r="CG2" s="84"/>
+      <c r="CH2" s="84"/>
+      <c r="CI2" s="84"/>
+      <c r="CJ2" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="CK2" s="59"/>
-      <c r="CL2" s="59"/>
+      <c r="CK2" s="84"/>
+      <c r="CL2" s="84"/>
     </row>
     <row r="3" spans="1:94" ht="16.5">
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="26">
+      <c r="Z3" s="71">
         <v>0</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="65">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="26">
         <v>1</v>
       </c>
-      <c r="AD3" s="66">
+      <c r="AD3" s="27">
         <v>2</v>
       </c>
-      <c r="AE3" s="66">
+      <c r="AE3" s="27">
         <v>3</v>
       </c>
-      <c r="AF3" s="66">
+      <c r="AF3" s="27">
         <v>4</v>
       </c>
-      <c r="AG3" s="66">
+      <c r="AG3" s="27">
         <v>5</v>
       </c>
-      <c r="AH3" s="67">
+      <c r="AH3" s="88">
         <v>6</v>
       </c>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="66">
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="27">
         <v>7</v>
       </c>
-      <c r="AK3" s="66">
+      <c r="AK3" s="27">
         <v>8</v>
       </c>
-      <c r="AL3" s="67">
+      <c r="AL3" s="88">
         <v>9</v>
       </c>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="67">
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="88">
         <v>10</v>
       </c>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="66">
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="27">
         <v>11</v>
       </c>
-      <c r="AQ3" s="66">
+      <c r="AQ3" s="27">
         <v>12</v>
       </c>
-      <c r="AR3" s="67">
+      <c r="AR3" s="88">
         <v>13</v>
       </c>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="66">
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="27">
         <v>14</v>
       </c>
-      <c r="AU3" s="66">
+      <c r="AU3" s="27">
         <v>15</v>
       </c>
-      <c r="AV3" s="66">
+      <c r="AV3" s="27">
         <v>16</v>
       </c>
-      <c r="AW3" s="66">
+      <c r="AW3" s="27">
         <v>17</v>
       </c>
-      <c r="AX3" s="67">
+      <c r="AX3" s="88">
         <v>18</v>
       </c>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="66">
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="27">
         <v>19</v>
       </c>
-      <c r="BA3" s="66">
+      <c r="BA3" s="27">
         <v>20</v>
       </c>
-      <c r="BB3" s="67">
+      <c r="BB3" s="88">
         <v>21</v>
       </c>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="66">
+      <c r="BC3" s="84"/>
+      <c r="BD3" s="27">
         <v>22</v>
       </c>
-      <c r="BE3" s="66">
+      <c r="BE3" s="27">
         <v>23</v>
       </c>
-      <c r="BF3" s="66">
+      <c r="BF3" s="27">
         <v>24</v>
       </c>
-      <c r="BG3" s="67">
+      <c r="BG3" s="88">
         <v>25</v>
       </c>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="66">
+      <c r="BH3" s="84"/>
+      <c r="BI3" s="27">
         <v>26</v>
       </c>
-      <c r="BJ3" s="66">
+      <c r="BJ3" s="27">
         <v>27</v>
       </c>
-      <c r="BK3" s="66">
+      <c r="BK3" s="27">
         <v>28</v>
       </c>
-      <c r="BL3" s="67">
+      <c r="BL3" s="88">
         <v>29</v>
       </c>
-      <c r="BM3" s="59"/>
-      <c r="BN3" s="67">
+      <c r="BM3" s="84"/>
+      <c r="BN3" s="88">
         <v>30</v>
       </c>
-      <c r="BO3" s="59"/>
-      <c r="BP3" s="67">
+      <c r="BO3" s="84"/>
+      <c r="BP3" s="88">
         <v>31</v>
       </c>
-      <c r="BQ3" s="59"/>
-      <c r="BR3" s="59"/>
-      <c r="BS3" s="66">
+      <c r="BQ3" s="84"/>
+      <c r="BR3" s="84"/>
+      <c r="BS3" s="27">
         <v>32</v>
       </c>
-      <c r="BT3" s="67">
+      <c r="BT3" s="88">
         <v>33</v>
       </c>
-      <c r="BU3" s="59"/>
-      <c r="BV3" s="67">
+      <c r="BU3" s="84"/>
+      <c r="BV3" s="88">
         <v>34</v>
       </c>
-      <c r="BW3" s="59"/>
-      <c r="BX3" s="67">
+      <c r="BW3" s="84"/>
+      <c r="BX3" s="88">
         <v>35</v>
       </c>
-      <c r="BY3" s="59"/>
-      <c r="BZ3" s="66">
+      <c r="BY3" s="84"/>
+      <c r="BZ3" s="27">
         <v>36</v>
       </c>
-      <c r="CA3" s="66">
+      <c r="CA3" s="27">
         <v>37</v>
       </c>
-      <c r="CB3" s="66">
+      <c r="CB3" s="27">
         <v>38</v>
       </c>
-      <c r="CC3" s="67">
+      <c r="CC3" s="88">
         <v>39</v>
       </c>
-      <c r="CD3" s="59"/>
-      <c r="CE3" s="59"/>
-      <c r="CF3" s="66">
+      <c r="CD3" s="84"/>
+      <c r="CE3" s="84"/>
+      <c r="CF3" s="27">
         <v>40</v>
       </c>
-      <c r="CG3" s="66">
+      <c r="CG3" s="27">
         <v>41</v>
       </c>
-      <c r="CH3" s="67">
+      <c r="CH3" s="88">
         <v>42</v>
       </c>
-      <c r="CI3" s="59"/>
-      <c r="CJ3" s="67">
+      <c r="CI3" s="84"/>
+      <c r="CJ3" s="88">
         <v>43</v>
       </c>
-      <c r="CK3" s="59"/>
-      <c r="CL3" s="59"/>
+      <c r="CK3" s="84"/>
+      <c r="CL3" s="84"/>
     </row>
     <row r="4" spans="1:94" ht="115.5" customHeight="1">
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="46" t="s">
+      <c r="Z4" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="68" t="s">
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="AD4" s="69" t="s">
+      <c r="AD4" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="AE4" s="70" t="s">
+      <c r="AE4" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="AF4" s="69" t="s">
+      <c r="AF4" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="AG4" s="70" t="s">
+      <c r="AG4" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="AH4" s="71" t="s">
+      <c r="AH4" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="70" t="s">
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="AK4" s="69" t="s">
+      <c r="AK4" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="AL4" s="72" t="s">
+      <c r="AL4" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="71" t="s">
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="86" t="s">
         <v>222</v>
       </c>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="73" t="s">
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="AQ4" s="74" t="s">
+      <c r="AQ4" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="AR4" s="75" t="s">
+      <c r="AR4" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="69" t="s">
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="AU4" s="76" t="s">
+      <c r="AU4" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="AV4" s="69" t="s">
+      <c r="AV4" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="AW4" s="70" t="s">
+      <c r="AW4" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="AX4" s="71" t="s">
+      <c r="AX4" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="70" t="s">
+      <c r="AY4" s="84"/>
+      <c r="AZ4" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="BA4" s="69" t="s">
+      <c r="BA4" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="BB4" s="72" t="s">
+      <c r="BB4" s="85" t="s">
         <v>232</v>
       </c>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="69" t="s">
+      <c r="BC4" s="84"/>
+      <c r="BD4" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="BE4" s="73" t="s">
+      <c r="BE4" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="BF4" s="69" t="s">
+      <c r="BF4" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="BG4" s="77" t="s">
+      <c r="BG4" s="83" t="s">
         <v>236</v>
       </c>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="74" t="s">
+      <c r="BH4" s="84"/>
+      <c r="BI4" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="BJ4" s="78" t="s">
+      <c r="BJ4" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="BK4" s="74" t="s">
+      <c r="BK4" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="BL4" s="77" t="s">
+      <c r="BL4" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="BM4" s="59"/>
-      <c r="BN4" s="71" t="s">
+      <c r="BM4" s="84"/>
+      <c r="BN4" s="86" t="s">
         <v>241</v>
       </c>
-      <c r="BO4" s="59"/>
-      <c r="BP4" s="72" t="s">
+      <c r="BO4" s="84"/>
+      <c r="BP4" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="BQ4" s="59"/>
-      <c r="BR4" s="59"/>
-      <c r="BS4" s="69" t="s">
+      <c r="BQ4" s="84"/>
+      <c r="BR4" s="84"/>
+      <c r="BS4" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="BT4" s="72" t="s">
+      <c r="BT4" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="BU4" s="59"/>
-      <c r="BV4" s="79" t="s">
+      <c r="BU4" s="84"/>
+      <c r="BV4" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="BW4" s="59"/>
-      <c r="BX4" s="77" t="s">
+      <c r="BW4" s="84"/>
+      <c r="BX4" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="BY4" s="59"/>
-      <c r="BZ4" s="74" t="s">
+      <c r="BY4" s="84"/>
+      <c r="BZ4" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="CA4" s="70" t="s">
+      <c r="CA4" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="CB4" s="69" t="s">
+      <c r="CB4" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="CC4" s="72" t="s">
+      <c r="CC4" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="CD4" s="59"/>
-      <c r="CE4" s="59"/>
-      <c r="CF4" s="69" t="s">
+      <c r="CD4" s="84"/>
+      <c r="CE4" s="84"/>
+      <c r="CF4" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="CG4" s="70" t="s">
+      <c r="CG4" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="CH4" s="71" t="s">
+      <c r="CH4" s="86" t="s">
         <v>253</v>
       </c>
-      <c r="CI4" s="59"/>
-      <c r="CJ4" s="72" t="s">
+      <c r="CI4" s="84"/>
+      <c r="CJ4" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="CK4" s="59"/>
-      <c r="CL4" s="59"/>
+      <c r="CK4" s="84"/>
+      <c r="CL4" s="84"/>
     </row>
-    <row r="5" spans="1:94" s="57" customFormat="1" ht="111.75" customHeight="1">
+    <row r="5" spans="1:94" s="25" customFormat="1" ht="111.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3972,13 +3931,13 @@
       <c r="Z5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AA5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC5" s="56" t="s">
+      <c r="AC5" s="24" t="s">
         <v>29</v>
       </c>
       <c r="AD5" s="6" t="s">
@@ -4179,16 +4138,32 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="CC4:CE4"/>
-    <mergeCell ref="CH4:CI4"/>
-    <mergeCell ref="CJ4:CL4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BN4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="BT4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="AC1:AV1"/>
+    <mergeCell ref="AW1:BK1"/>
+    <mergeCell ref="BL1:CB1"/>
+    <mergeCell ref="CC1:CL1"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="CC2:CI2"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BS2"/>
+    <mergeCell ref="BT2:BW2"/>
+    <mergeCell ref="BX2:CB2"/>
     <mergeCell ref="CC3:CE3"/>
     <mergeCell ref="CH3:CI3"/>
     <mergeCell ref="CJ3:CL3"/>
@@ -4205,32 +4180,16 @@
     <mergeCell ref="BT3:BU3"/>
     <mergeCell ref="BV3:BW3"/>
     <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="CC2:CI2"/>
-    <mergeCell ref="CJ2:CL2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BS2"/>
-    <mergeCell ref="BT2:BW2"/>
-    <mergeCell ref="BX2:CB2"/>
-    <mergeCell ref="AC1:AV1"/>
-    <mergeCell ref="AW1:BK1"/>
-    <mergeCell ref="BL1:CB1"/>
-    <mergeCell ref="CC1:CL1"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="CC4:CE4"/>
+    <mergeCell ref="CH4:CI4"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BT4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4250,298 +4209,298 @@
       <c r="Y1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="85">
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="108">
         <v>1</v>
       </c>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="87">
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101"/>
+      <c r="AL1" s="101"/>
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="101"/>
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="101"/>
+      <c r="AQ1" s="101"/>
+      <c r="AR1" s="101"/>
+      <c r="AS1" s="101"/>
+      <c r="AT1" s="101"/>
+      <c r="AU1" s="101"/>
+      <c r="AV1" s="101"/>
+      <c r="AW1" s="101"/>
+      <c r="AX1" s="101"/>
+      <c r="AY1" s="101"/>
+      <c r="AZ1" s="109">
         <v>2</v>
       </c>
-      <c r="BA1" s="86"/>
-      <c r="BB1" s="86"/>
-      <c r="BC1" s="86"/>
-      <c r="BD1" s="86"/>
-      <c r="BE1" s="86"/>
-      <c r="BF1" s="86"/>
-      <c r="BG1" s="86"/>
-      <c r="BH1" s="86"/>
-      <c r="BI1" s="86"/>
-      <c r="BJ1" s="86"/>
-      <c r="BK1" s="88">
+      <c r="BA1" s="101"/>
+      <c r="BB1" s="101"/>
+      <c r="BC1" s="101"/>
+      <c r="BD1" s="101"/>
+      <c r="BE1" s="101"/>
+      <c r="BF1" s="101"/>
+      <c r="BG1" s="101"/>
+      <c r="BH1" s="101"/>
+      <c r="BI1" s="101"/>
+      <c r="BJ1" s="101"/>
+      <c r="BK1" s="110">
         <v>3</v>
       </c>
-      <c r="BL1" s="86"/>
-      <c r="BM1" s="86"/>
-      <c r="BN1" s="86"/>
-      <c r="BO1" s="86"/>
-      <c r="BP1" s="86"/>
-      <c r="BQ1" s="86"/>
-      <c r="BR1" s="86"/>
-      <c r="BS1" s="86"/>
-      <c r="BT1" s="86"/>
-      <c r="BU1" s="86"/>
-      <c r="BV1" s="86"/>
-      <c r="BW1" s="86"/>
-      <c r="BX1" s="86"/>
-      <c r="BY1" s="86"/>
-      <c r="BZ1" s="86"/>
-      <c r="CA1" s="86"/>
-      <c r="CB1" s="89" t="s">
+      <c r="BL1" s="101"/>
+      <c r="BM1" s="101"/>
+      <c r="BN1" s="101"/>
+      <c r="BO1" s="101"/>
+      <c r="BP1" s="101"/>
+      <c r="BQ1" s="101"/>
+      <c r="BR1" s="101"/>
+      <c r="BS1" s="101"/>
+      <c r="BT1" s="101"/>
+      <c r="BU1" s="101"/>
+      <c r="BV1" s="101"/>
+      <c r="BW1" s="101"/>
+      <c r="BX1" s="101"/>
+      <c r="BY1" s="101"/>
+      <c r="BZ1" s="101"/>
+      <c r="CA1" s="101"/>
+      <c r="CB1" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="CC1" s="86"/>
-      <c r="CD1" s="86"/>
-      <c r="CE1" s="86"/>
-      <c r="CF1" s="86"/>
-      <c r="CG1" s="86"/>
+      <c r="CC1" s="101"/>
+      <c r="CD1" s="101"/>
+      <c r="CE1" s="101"/>
+      <c r="CF1" s="101"/>
+      <c r="CG1" s="101"/>
     </row>
     <row r="2" spans="1:89" ht="16.5">
       <c r="Y2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="90">
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="112">
         <v>1</v>
       </c>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="91">
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="106">
         <v>2</v>
       </c>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="92">
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="105">
         <v>3</v>
       </c>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="91">
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="106">
         <v>4</v>
       </c>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="92">
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="105">
         <v>5</v>
       </c>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="91">
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="106">
         <v>6</v>
       </c>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="92">
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="105">
         <v>1</v>
       </c>
-      <c r="BA2" s="86"/>
-      <c r="BB2" s="86"/>
-      <c r="BC2" s="86"/>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="91">
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="101"/>
+      <c r="BC2" s="101"/>
+      <c r="BD2" s="101"/>
+      <c r="BE2" s="106">
         <v>2</v>
       </c>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="92">
+      <c r="BF2" s="101"/>
+      <c r="BG2" s="101"/>
+      <c r="BH2" s="105">
         <v>3</v>
       </c>
-      <c r="BI2" s="86"/>
-      <c r="BJ2" s="86"/>
-      <c r="BK2" s="91">
+      <c r="BI2" s="101"/>
+      <c r="BJ2" s="101"/>
+      <c r="BK2" s="106">
         <v>1</v>
       </c>
-      <c r="BL2" s="86"/>
-      <c r="BM2" s="86"/>
-      <c r="BN2" s="86"/>
-      <c r="BO2" s="92">
+      <c r="BL2" s="101"/>
+      <c r="BM2" s="101"/>
+      <c r="BN2" s="101"/>
+      <c r="BO2" s="105">
         <v>2</v>
       </c>
-      <c r="BP2" s="86"/>
-      <c r="BQ2" s="86"/>
-      <c r="BR2" s="86"/>
-      <c r="BS2" s="91">
+      <c r="BP2" s="101"/>
+      <c r="BQ2" s="101"/>
+      <c r="BR2" s="101"/>
+      <c r="BS2" s="106">
         <v>3</v>
       </c>
-      <c r="BT2" s="86"/>
-      <c r="BU2" s="86"/>
-      <c r="BV2" s="86"/>
-      <c r="BW2" s="86"/>
-      <c r="BX2" s="92">
+      <c r="BT2" s="101"/>
+      <c r="BU2" s="101"/>
+      <c r="BV2" s="101"/>
+      <c r="BW2" s="101"/>
+      <c r="BX2" s="105">
         <v>4</v>
       </c>
-      <c r="BY2" s="86"/>
-      <c r="BZ2" s="86"/>
-      <c r="CA2" s="86"/>
-      <c r="CB2" s="91">
+      <c r="BY2" s="101"/>
+      <c r="BZ2" s="101"/>
+      <c r="CA2" s="101"/>
+      <c r="CB2" s="106">
         <v>1</v>
       </c>
-      <c r="CC2" s="86"/>
-      <c r="CD2" s="86"/>
-      <c r="CE2" s="92">
+      <c r="CC2" s="101"/>
+      <c r="CD2" s="101"/>
+      <c r="CE2" s="105">
         <v>2</v>
       </c>
-      <c r="CF2" s="86"/>
-      <c r="CG2" s="86"/>
+      <c r="CF2" s="101"/>
+      <c r="CG2" s="101"/>
     </row>
     <row r="3" spans="1:89" ht="26.25" customHeight="1">
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="26">
+      <c r="Z3" s="71">
         <v>0</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="93">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="107">
         <v>1</v>
       </c>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="94">
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="40">
         <v>2</v>
       </c>
-      <c r="AF3" s="95">
+      <c r="AF3" s="102">
         <v>3</v>
       </c>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="96">
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="41">
         <v>4</v>
       </c>
-      <c r="AI3" s="97">
+      <c r="AI3" s="99">
         <v>5</v>
       </c>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="94">
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="40">
         <v>6</v>
       </c>
-      <c r="AM3" s="98">
+      <c r="AM3" s="104">
         <v>7</v>
       </c>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="98">
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="104">
         <v>8</v>
       </c>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="97">
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="99">
         <v>9</v>
       </c>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="97">
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="99">
         <v>10</v>
       </c>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="95">
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="102">
         <v>11</v>
       </c>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="96">
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="41">
         <v>12</v>
       </c>
-      <c r="AZ3" s="99">
+      <c r="AZ3" s="100">
         <v>13</v>
       </c>
-      <c r="BA3" s="86"/>
-      <c r="BB3" s="99">
+      <c r="BA3" s="101"/>
+      <c r="BB3" s="100">
         <v>14</v>
       </c>
-      <c r="BC3" s="86"/>
-      <c r="BD3" s="86"/>
-      <c r="BE3" s="95">
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="102">
         <v>15</v>
       </c>
-      <c r="BF3" s="86"/>
-      <c r="BG3" s="96">
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="41">
         <v>16</v>
       </c>
-      <c r="BH3" s="99">
+      <c r="BH3" s="100">
         <v>17</v>
       </c>
-      <c r="BI3" s="86"/>
-      <c r="BJ3" s="94">
+      <c r="BI3" s="101"/>
+      <c r="BJ3" s="40">
         <v>18</v>
       </c>
-      <c r="BK3" s="95">
+      <c r="BK3" s="102">
         <v>19</v>
       </c>
-      <c r="BL3" s="86"/>
-      <c r="BM3" s="86"/>
-      <c r="BN3" s="96">
+      <c r="BL3" s="101"/>
+      <c r="BM3" s="101"/>
+      <c r="BN3" s="41">
         <v>20</v>
       </c>
-      <c r="BO3" s="99">
+      <c r="BO3" s="100">
         <v>21</v>
       </c>
-      <c r="BP3" s="86"/>
-      <c r="BQ3" s="99">
+      <c r="BP3" s="101"/>
+      <c r="BQ3" s="100">
         <v>22</v>
       </c>
-      <c r="BR3" s="86"/>
-      <c r="BS3" s="95">
+      <c r="BR3" s="101"/>
+      <c r="BS3" s="102">
         <v>23</v>
       </c>
-      <c r="BT3" s="86"/>
-      <c r="BU3" s="86"/>
-      <c r="BV3" s="95">
+      <c r="BT3" s="101"/>
+      <c r="BU3" s="101"/>
+      <c r="BV3" s="102">
         <v>24</v>
       </c>
-      <c r="BW3" s="86"/>
-      <c r="BX3" s="99">
+      <c r="BW3" s="101"/>
+      <c r="BX3" s="100">
         <v>25</v>
       </c>
-      <c r="BY3" s="86"/>
-      <c r="BZ3" s="99">
+      <c r="BY3" s="101"/>
+      <c r="BZ3" s="100">
         <v>26</v>
       </c>
-      <c r="CA3" s="86"/>
-      <c r="CB3" s="95">
+      <c r="CA3" s="101"/>
+      <c r="CB3" s="102">
         <v>27</v>
       </c>
-      <c r="CC3" s="86"/>
-      <c r="CD3" s="96">
+      <c r="CC3" s="101"/>
+      <c r="CD3" s="41">
         <v>28</v>
       </c>
-      <c r="CE3" s="99">
+      <c r="CE3" s="100">
         <v>29</v>
       </c>
-      <c r="CF3" s="86"/>
-      <c r="CG3" s="100">
+      <c r="CF3" s="101"/>
+      <c r="CG3" s="42">
         <v>30</v>
       </c>
     </row>
@@ -4549,200 +4508,200 @@
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="46" t="s">
+      <c r="Z4" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="101" t="s">
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="103" t="s">
         <v>295</v>
       </c>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="103" t="s">
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="AF4" s="104" t="s">
+      <c r="AF4" s="98" t="s">
         <v>297</v>
       </c>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="105" t="s">
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="AI4" s="97" t="s">
+      <c r="AI4" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="103" t="s">
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="AM4" s="98" t="s">
+      <c r="AM4" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="AN4" s="102"/>
-      <c r="AO4" s="102"/>
-      <c r="AP4" s="98" t="s">
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="97" t="s">
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="97" t="s">
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="99" t="s">
         <v>304</v>
       </c>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="104" t="s">
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="98" t="s">
         <v>305</v>
       </c>
-      <c r="AW4" s="102"/>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="105" t="s">
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="AZ4" s="106" t="s">
+      <c r="AZ4" s="96" t="s">
         <v>307</v>
       </c>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="106" t="s">
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="96" t="s">
         <v>308</v>
       </c>
-      <c r="BC4" s="102"/>
-      <c r="BD4" s="102"/>
-      <c r="BE4" s="104" t="s">
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="98" t="s">
         <v>309</v>
       </c>
-      <c r="BF4" s="102"/>
-      <c r="BG4" s="105" t="s">
+      <c r="BF4" s="97"/>
+      <c r="BG4" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="BH4" s="106" t="s">
+      <c r="BH4" s="96" t="s">
         <v>311</v>
       </c>
-      <c r="BI4" s="102"/>
-      <c r="BJ4" s="107" t="s">
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="BK4" s="104" t="s">
+      <c r="BK4" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="BL4" s="102"/>
-      <c r="BM4" s="102"/>
-      <c r="BN4" s="105" t="s">
+      <c r="BL4" s="97"/>
+      <c r="BM4" s="97"/>
+      <c r="BN4" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="BO4" s="106" t="s">
+      <c r="BO4" s="96" t="s">
         <v>315</v>
       </c>
-      <c r="BP4" s="102"/>
-      <c r="BQ4" s="106" t="s">
+      <c r="BP4" s="97"/>
+      <c r="BQ4" s="96" t="s">
         <v>316</v>
       </c>
-      <c r="BR4" s="102"/>
-      <c r="BS4" s="104" t="s">
+      <c r="BR4" s="97"/>
+      <c r="BS4" s="98" t="s">
         <v>317</v>
       </c>
-      <c r="BT4" s="102"/>
-      <c r="BU4" s="102"/>
-      <c r="BV4" s="104" t="s">
+      <c r="BT4" s="97"/>
+      <c r="BU4" s="97"/>
+      <c r="BV4" s="98" t="s">
         <v>318</v>
       </c>
-      <c r="BW4" s="102"/>
-      <c r="BX4" s="106" t="s">
+      <c r="BW4" s="97"/>
+      <c r="BX4" s="96" t="s">
         <v>319</v>
       </c>
-      <c r="BY4" s="102"/>
-      <c r="BZ4" s="106" t="s">
+      <c r="BY4" s="97"/>
+      <c r="BZ4" s="96" t="s">
         <v>320</v>
       </c>
-      <c r="CA4" s="102"/>
-      <c r="CB4" s="104" t="s">
+      <c r="CA4" s="97"/>
+      <c r="CB4" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="CC4" s="102"/>
-      <c r="CD4" s="105" t="s">
+      <c r="CC4" s="97"/>
+      <c r="CD4" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="CE4" s="106" t="s">
+      <c r="CE4" s="96" t="s">
         <v>323</v>
       </c>
-      <c r="CF4" s="102"/>
-      <c r="CG4" s="107" t="s">
+      <c r="CF4" s="97"/>
+      <c r="CG4" s="45" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:89" s="57" customFormat="1" ht="118.5" customHeight="1">
-      <c r="A5" s="80" t="s">
+    <row r="5" spans="1:89" s="25" customFormat="1" ht="118.5" customHeight="1">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="80" t="s">
+      <c r="K5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="80" t="s">
+      <c r="L5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="80" t="s">
+      <c r="M5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="80" t="s">
+      <c r="N5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="81" t="s">
+      <c r="O5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="81" t="s">
+      <c r="P5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="81" t="s">
+      <c r="Q5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="80" t="s">
+      <c r="R5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="80" t="s">
+      <c r="S5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="80" t="s">
+      <c r="T5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="80" t="s">
+      <c r="U5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="80" t="s">
+      <c r="V5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="80" t="s">
+      <c r="W5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="84" t="s">
+      <c r="X5" s="39" t="s">
         <v>23</v>
       </c>
       <c r="Y5" s="5" t="s">
@@ -4751,7 +4710,7 @@
       <c r="Z5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AA5" s="36" t="s">
         <v>26</v>
       </c>
       <c r="AB5" s="6" t="s">
@@ -4943,20 +4902,39 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CB4:CC4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="BK4:BM4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AX4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="AC1:AY1"/>
+    <mergeCell ref="AZ1:BJ1"/>
+    <mergeCell ref="BK1:CA1"/>
+    <mergeCell ref="CB1:CG1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CD2"/>
+    <mergeCell ref="CE2:CG2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BW2"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BH3:BI3"/>
     <mergeCell ref="BH4:BI4"/>
     <mergeCell ref="BZ3:CA3"/>
     <mergeCell ref="CB3:CC3"/>
@@ -4973,39 +4951,20 @@
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="BS3:BU3"/>
     <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BH3:BI3"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CD2"/>
-    <mergeCell ref="CE2:CG2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BW2"/>
-    <mergeCell ref="AC1:AY1"/>
-    <mergeCell ref="AZ1:BJ1"/>
-    <mergeCell ref="BK1:CA1"/>
-    <mergeCell ref="CB1:CG1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AX4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CB4:CC4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="BK4:BM4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BX4:BY4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5015,853 +4974,853 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24DBF0F-D65B-4755-A123-E8481AA1923A}">
   <dimension ref="A1:YW5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:673" ht="18">
-      <c r="Y1" s="117" t="s">
+      <c r="Y1" s="113" t="s">
         <v>336</v>
       </c>
-      <c r="Z1" s="118" t="s">
+      <c r="Z1" s="115" t="s">
         <v>337</v>
       </c>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="120" t="s">
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="117" t="s">
         <v>338</v>
       </c>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="121"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
     </row>
     <row r="2" spans="1:673" ht="18">
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="123" t="s">
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="119" t="s">
         <v>339</v>
       </c>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="125" t="s">
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="121" t="s">
         <v>339</v>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
     </row>
     <row r="3" spans="1:673" ht="18">
-      <c r="Y3" s="117" t="s">
+      <c r="Y3" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="Z3" s="127" t="s">
+      <c r="Z3" s="123" t="s">
         <v>340</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="129" t="s">
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="131" t="s">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="129" t="s">
         <v>342</v>
       </c>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="132"/>
-      <c r="AK3" s="132"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="130"/>
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="130"/>
     </row>
     <row r="4" spans="1:673" ht="18">
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="114"/>
       <c r="Z4" s="133" t="s">
         <v>343</v>
       </c>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="134"/>
-      <c r="AF4" s="134"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="137"/>
-      <c r="AI4" s="137"/>
-      <c r="AJ4" s="137"/>
-      <c r="AK4" s="137"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132"/>
+      <c r="AK4" s="132"/>
     </row>
-    <row r="5" spans="1:673" s="116" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A5" s="80" t="s">
+    <row r="5" spans="1:673" s="51" customFormat="1" ht="105.75" customHeight="1">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="80" t="s">
+      <c r="K5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="80" t="s">
+      <c r="L5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="80" t="s">
+      <c r="M5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="80" t="s">
+      <c r="N5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="81" t="s">
+      <c r="O5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="81" t="s">
+      <c r="P5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="81" t="s">
+      <c r="Q5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="80" t="s">
+      <c r="R5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="80" t="s">
+      <c r="S5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="80" t="s">
+      <c r="T5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="80" t="s">
+      <c r="U5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="80" t="s">
+      <c r="V5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="80" t="s">
+      <c r="W5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="84" t="s">
+      <c r="X5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="108" t="s">
+      <c r="Y5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="109" t="s">
+      <c r="Z5" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="AA5" s="110" t="s">
+      <c r="AA5" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="AB5" s="110" t="s">
+      <c r="AB5" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="AC5" s="111" t="s">
+      <c r="AC5" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="AD5" s="110" t="s">
+      <c r="AD5" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="AE5" s="110" t="s">
+      <c r="AE5" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="AF5" s="110" t="s">
+      <c r="AF5" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="AG5" s="112" t="s">
+      <c r="AG5" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="AH5" s="113" t="s">
+      <c r="AH5" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="AI5" s="113" t="s">
+      <c r="AI5" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="AJ5" s="114" t="s">
+      <c r="AJ5" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="AK5" s="113" t="s">
+      <c r="AK5" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="AL5" s="115"/>
-      <c r="AM5" s="115"/>
-      <c r="AN5" s="115"/>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115"/>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="115"/>
-      <c r="AW5" s="115"/>
-      <c r="AX5" s="115"/>
-      <c r="AY5" s="115"/>
-      <c r="AZ5" s="115"/>
-      <c r="BA5" s="115"/>
-      <c r="BB5" s="115"/>
-      <c r="BC5" s="115"/>
-      <c r="BD5" s="115"/>
-      <c r="BE5" s="115"/>
-      <c r="BF5" s="115"/>
-      <c r="BG5" s="115"/>
-      <c r="BH5" s="115"/>
-      <c r="BI5" s="115"/>
-      <c r="BJ5" s="115"/>
-      <c r="BK5" s="115"/>
-      <c r="BL5" s="115"/>
-      <c r="BM5" s="115"/>
-      <c r="BN5" s="115"/>
-      <c r="BO5" s="115"/>
-      <c r="BP5" s="115"/>
-      <c r="BQ5" s="115"/>
-      <c r="BR5" s="115"/>
-      <c r="BS5" s="115"/>
-      <c r="BT5" s="115"/>
-      <c r="BU5" s="115"/>
-      <c r="BV5" s="115"/>
-      <c r="BW5" s="115"/>
-      <c r="BX5" s="115"/>
-      <c r="BY5" s="115"/>
-      <c r="BZ5" s="115"/>
-      <c r="CA5" s="115"/>
-      <c r="CB5" s="115"/>
-      <c r="CC5" s="115"/>
-      <c r="CD5" s="115"/>
-      <c r="CE5" s="115"/>
-      <c r="CF5" s="115"/>
-      <c r="CG5" s="115"/>
-      <c r="CH5" s="115"/>
-      <c r="CI5" s="115"/>
-      <c r="CJ5" s="115"/>
-      <c r="CK5" s="115"/>
-      <c r="CL5" s="115"/>
-      <c r="CM5" s="115"/>
-      <c r="CN5" s="115"/>
-      <c r="CO5" s="115"/>
-      <c r="CP5" s="115"/>
-      <c r="CQ5" s="115"/>
-      <c r="CR5" s="115"/>
-      <c r="CS5" s="115"/>
-      <c r="CT5" s="115"/>
-      <c r="CU5" s="115"/>
-      <c r="CV5" s="115"/>
-      <c r="CW5" s="115"/>
-      <c r="CX5" s="115"/>
-      <c r="CY5" s="115"/>
-      <c r="CZ5" s="115"/>
-      <c r="DA5" s="115"/>
-      <c r="DB5" s="115"/>
-      <c r="DC5" s="115"/>
-      <c r="DD5" s="115"/>
-      <c r="DE5" s="115"/>
-      <c r="DF5" s="115"/>
-      <c r="DG5" s="115"/>
-      <c r="DH5" s="115"/>
-      <c r="DI5" s="115"/>
-      <c r="DJ5" s="115"/>
-      <c r="DK5" s="115"/>
-      <c r="DL5" s="115"/>
-      <c r="DM5" s="115"/>
-      <c r="DN5" s="115"/>
-      <c r="DO5" s="115"/>
-      <c r="DP5" s="115"/>
-      <c r="DQ5" s="115"/>
-      <c r="DR5" s="115"/>
-      <c r="DS5" s="115"/>
-      <c r="DT5" s="115"/>
-      <c r="DU5" s="115"/>
-      <c r="DV5" s="115"/>
-      <c r="DW5" s="115"/>
-      <c r="DX5" s="115"/>
-      <c r="DY5" s="115"/>
-      <c r="DZ5" s="115"/>
-      <c r="EA5" s="115"/>
-      <c r="EB5" s="115"/>
-      <c r="EC5" s="115"/>
-      <c r="ED5" s="115"/>
-      <c r="EE5" s="115"/>
-      <c r="EF5" s="115"/>
-      <c r="EG5" s="115"/>
-      <c r="EH5" s="115"/>
-      <c r="EI5" s="115"/>
-      <c r="EJ5" s="115"/>
-      <c r="EK5" s="115"/>
-      <c r="EL5" s="115"/>
-      <c r="EM5" s="115"/>
-      <c r="EN5" s="115"/>
-      <c r="EO5" s="115"/>
-      <c r="EP5" s="115"/>
-      <c r="EQ5" s="115"/>
-      <c r="ER5" s="115"/>
-      <c r="ES5" s="115"/>
-      <c r="ET5" s="115"/>
-      <c r="EU5" s="115"/>
-      <c r="EV5" s="115"/>
-      <c r="EW5" s="115"/>
-      <c r="EX5" s="115"/>
-      <c r="EY5" s="115"/>
-      <c r="EZ5" s="115"/>
-      <c r="FA5" s="115"/>
-      <c r="FB5" s="115"/>
-      <c r="FC5" s="115"/>
-      <c r="FD5" s="115"/>
-      <c r="FE5" s="115"/>
-      <c r="FF5" s="115"/>
-      <c r="FG5" s="115"/>
-      <c r="FH5" s="115"/>
-      <c r="FI5" s="115"/>
-      <c r="FJ5" s="115"/>
-      <c r="FK5" s="115"/>
-      <c r="FL5" s="115"/>
-      <c r="FM5" s="115"/>
-      <c r="FN5" s="115"/>
-      <c r="FO5" s="115"/>
-      <c r="FP5" s="115"/>
-      <c r="FQ5" s="115"/>
-      <c r="FR5" s="115"/>
-      <c r="FS5" s="115"/>
-      <c r="FT5" s="115"/>
-      <c r="FU5" s="115"/>
-      <c r="FV5" s="115"/>
-      <c r="FW5" s="115"/>
-      <c r="FX5" s="115"/>
-      <c r="FY5" s="115"/>
-      <c r="FZ5" s="115"/>
-      <c r="GA5" s="115"/>
-      <c r="GB5" s="115"/>
-      <c r="GC5" s="115"/>
-      <c r="GD5" s="115"/>
-      <c r="GE5" s="115"/>
-      <c r="GF5" s="115"/>
-      <c r="GG5" s="115"/>
-      <c r="GH5" s="115"/>
-      <c r="GI5" s="115"/>
-      <c r="GJ5" s="115"/>
-      <c r="GK5" s="115"/>
-      <c r="GL5" s="115"/>
-      <c r="GM5" s="115"/>
-      <c r="GN5" s="115"/>
-      <c r="GO5" s="115"/>
-      <c r="GP5" s="115"/>
-      <c r="GQ5" s="115"/>
-      <c r="GR5" s="115"/>
-      <c r="GS5" s="115"/>
-      <c r="GT5" s="115"/>
-      <c r="GU5" s="115"/>
-      <c r="GV5" s="115"/>
-      <c r="GW5" s="115"/>
-      <c r="GX5" s="115"/>
-      <c r="GY5" s="115"/>
-      <c r="GZ5" s="115"/>
-      <c r="HA5" s="115"/>
-      <c r="HB5" s="115"/>
-      <c r="HC5" s="115"/>
-      <c r="HD5" s="115"/>
-      <c r="HE5" s="115"/>
-      <c r="HF5" s="115"/>
-      <c r="HG5" s="115"/>
-      <c r="HH5" s="115"/>
-      <c r="HI5" s="115"/>
-      <c r="HJ5" s="115"/>
-      <c r="HK5" s="115"/>
-      <c r="HL5" s="115"/>
-      <c r="HM5" s="115"/>
-      <c r="HN5" s="115"/>
-      <c r="HO5" s="115"/>
-      <c r="HP5" s="115"/>
-      <c r="HQ5" s="115"/>
-      <c r="HR5" s="115"/>
-      <c r="HS5" s="115"/>
-      <c r="HT5" s="115"/>
-      <c r="HU5" s="115"/>
-      <c r="HV5" s="115"/>
-      <c r="HW5" s="115"/>
-      <c r="HX5" s="115"/>
-      <c r="HY5" s="115"/>
-      <c r="HZ5" s="115"/>
-      <c r="IA5" s="115"/>
-      <c r="IB5" s="115"/>
-      <c r="IC5" s="115"/>
-      <c r="ID5" s="115"/>
-      <c r="IE5" s="115"/>
-      <c r="IF5" s="115"/>
-      <c r="IG5" s="115"/>
-      <c r="IH5" s="115"/>
-      <c r="II5" s="115"/>
-      <c r="IJ5" s="115"/>
-      <c r="IK5" s="115"/>
-      <c r="IL5" s="115"/>
-      <c r="IM5" s="115"/>
-      <c r="IN5" s="115"/>
-      <c r="IO5" s="115"/>
-      <c r="IP5" s="115"/>
-      <c r="IQ5" s="115"/>
-      <c r="IR5" s="115"/>
-      <c r="IS5" s="115"/>
-      <c r="IT5" s="115"/>
-      <c r="IU5" s="115"/>
-      <c r="IV5" s="115"/>
-      <c r="IW5" s="115"/>
-      <c r="IX5" s="115"/>
-      <c r="IY5" s="115"/>
-      <c r="IZ5" s="115"/>
-      <c r="JA5" s="115"/>
-      <c r="JB5" s="115"/>
-      <c r="JC5" s="115"/>
-      <c r="JD5" s="115"/>
-      <c r="JE5" s="115"/>
-      <c r="JF5" s="115"/>
-      <c r="JG5" s="115"/>
-      <c r="JH5" s="115"/>
-      <c r="JI5" s="115"/>
-      <c r="JJ5" s="115"/>
-      <c r="JK5" s="115"/>
-      <c r="JL5" s="115"/>
-      <c r="JM5" s="115"/>
-      <c r="JN5" s="115"/>
-      <c r="JO5" s="115"/>
-      <c r="JP5" s="115"/>
-      <c r="JQ5" s="115"/>
-      <c r="JR5" s="115"/>
-      <c r="JS5" s="115"/>
-      <c r="JT5" s="115"/>
-      <c r="JU5" s="115"/>
-      <c r="JV5" s="115"/>
-      <c r="JW5" s="115"/>
-      <c r="JX5" s="115"/>
-      <c r="JY5" s="115"/>
-      <c r="JZ5" s="115"/>
-      <c r="KA5" s="115"/>
-      <c r="KB5" s="115"/>
-      <c r="KC5" s="115"/>
-      <c r="KD5" s="115"/>
-      <c r="KE5" s="115"/>
-      <c r="KF5" s="115"/>
-      <c r="KG5" s="115"/>
-      <c r="KH5" s="115"/>
-      <c r="KI5" s="115"/>
-      <c r="KJ5" s="115"/>
-      <c r="KK5" s="115"/>
-      <c r="KL5" s="115"/>
-      <c r="KM5" s="115"/>
-      <c r="KN5" s="115"/>
-      <c r="KO5" s="115"/>
-      <c r="KP5" s="115"/>
-      <c r="KQ5" s="115"/>
-      <c r="KR5" s="115"/>
-      <c r="KS5" s="115"/>
-      <c r="KT5" s="115"/>
-      <c r="KU5" s="115"/>
-      <c r="KV5" s="115"/>
-      <c r="KW5" s="115"/>
-      <c r="KX5" s="115"/>
-      <c r="KY5" s="115"/>
-      <c r="KZ5" s="115"/>
-      <c r="LA5" s="115"/>
-      <c r="LB5" s="115"/>
-      <c r="LC5" s="115"/>
-      <c r="LD5" s="115"/>
-      <c r="LE5" s="115"/>
-      <c r="LF5" s="115"/>
-      <c r="LG5" s="115"/>
-      <c r="LH5" s="115"/>
-      <c r="LI5" s="115"/>
-      <c r="LJ5" s="115"/>
-      <c r="LK5" s="115"/>
-      <c r="LL5" s="115"/>
-      <c r="LM5" s="115"/>
-      <c r="LN5" s="115"/>
-      <c r="LO5" s="115"/>
-      <c r="LP5" s="115"/>
-      <c r="LQ5" s="115"/>
-      <c r="LR5" s="115"/>
-      <c r="LS5" s="115"/>
-      <c r="LT5" s="115"/>
-      <c r="LU5" s="115"/>
-      <c r="LV5" s="115"/>
-      <c r="LW5" s="115"/>
-      <c r="LX5" s="115"/>
-      <c r="LY5" s="115"/>
-      <c r="LZ5" s="115"/>
-      <c r="MA5" s="115"/>
-      <c r="MB5" s="115"/>
-      <c r="MC5" s="115"/>
-      <c r="MD5" s="115"/>
-      <c r="ME5" s="115"/>
-      <c r="MF5" s="115"/>
-      <c r="MG5" s="115"/>
-      <c r="MH5" s="115"/>
-      <c r="MI5" s="115"/>
-      <c r="MJ5" s="115"/>
-      <c r="MK5" s="115"/>
-      <c r="ML5" s="115"/>
-      <c r="MM5" s="115"/>
-      <c r="MN5" s="115"/>
-      <c r="MO5" s="115"/>
-      <c r="MP5" s="115"/>
-      <c r="MQ5" s="115"/>
-      <c r="MR5" s="115"/>
-      <c r="MS5" s="115"/>
-      <c r="MT5" s="115"/>
-      <c r="MU5" s="115"/>
-      <c r="MV5" s="115"/>
-      <c r="MW5" s="115"/>
-      <c r="MX5" s="115"/>
-      <c r="MY5" s="115"/>
-      <c r="MZ5" s="115"/>
-      <c r="NA5" s="115"/>
-      <c r="NB5" s="115"/>
-      <c r="NC5" s="115"/>
-      <c r="ND5" s="115"/>
-      <c r="NE5" s="115"/>
-      <c r="NF5" s="115"/>
-      <c r="NG5" s="115"/>
-      <c r="NH5" s="115"/>
-      <c r="NI5" s="115"/>
-      <c r="NJ5" s="115"/>
-      <c r="NK5" s="115"/>
-      <c r="NL5" s="115"/>
-      <c r="NM5" s="115"/>
-      <c r="NN5" s="115"/>
-      <c r="NO5" s="115"/>
-      <c r="NP5" s="115"/>
-      <c r="NQ5" s="115"/>
-      <c r="NR5" s="115"/>
-      <c r="NS5" s="115"/>
-      <c r="NT5" s="115"/>
-      <c r="NU5" s="115"/>
-      <c r="NV5" s="115"/>
-      <c r="NW5" s="115"/>
-      <c r="NX5" s="115"/>
-      <c r="NY5" s="115"/>
-      <c r="NZ5" s="115"/>
-      <c r="OA5" s="115"/>
-      <c r="OB5" s="115"/>
-      <c r="OC5" s="115"/>
-      <c r="OD5" s="115"/>
-      <c r="OE5" s="115"/>
-      <c r="OF5" s="115"/>
-      <c r="OG5" s="115"/>
-      <c r="OH5" s="115"/>
-      <c r="OI5" s="115"/>
-      <c r="OJ5" s="115"/>
-      <c r="OK5" s="115"/>
-      <c r="OL5" s="115"/>
-      <c r="OM5" s="115"/>
-      <c r="ON5" s="115"/>
-      <c r="OO5" s="115"/>
-      <c r="OP5" s="115"/>
-      <c r="OQ5" s="115"/>
-      <c r="OR5" s="115"/>
-      <c r="OS5" s="115"/>
-      <c r="OT5" s="115"/>
-      <c r="OU5" s="115"/>
-      <c r="OV5" s="115"/>
-      <c r="OW5" s="115"/>
-      <c r="OX5" s="115"/>
-      <c r="OY5" s="115"/>
-      <c r="OZ5" s="115"/>
-      <c r="PA5" s="115"/>
-      <c r="PB5" s="115"/>
-      <c r="PC5" s="115"/>
-      <c r="PD5" s="115"/>
-      <c r="PE5" s="115"/>
-      <c r="PF5" s="115"/>
-      <c r="PG5" s="115"/>
-      <c r="PH5" s="115"/>
-      <c r="PI5" s="115"/>
-      <c r="PJ5" s="115"/>
-      <c r="PK5" s="115"/>
-      <c r="PL5" s="115"/>
-      <c r="PM5" s="115"/>
-      <c r="PN5" s="115"/>
-      <c r="PO5" s="115"/>
-      <c r="PP5" s="115"/>
-      <c r="PQ5" s="115"/>
-      <c r="PR5" s="115"/>
-      <c r="PS5" s="115"/>
-      <c r="PT5" s="115"/>
-      <c r="PU5" s="115"/>
-      <c r="PV5" s="115"/>
-      <c r="PW5" s="115"/>
-      <c r="PX5" s="115"/>
-      <c r="PY5" s="115"/>
-      <c r="PZ5" s="115"/>
-      <c r="QA5" s="115"/>
-      <c r="QB5" s="115"/>
-      <c r="QC5" s="115"/>
-      <c r="QD5" s="115"/>
-      <c r="QE5" s="115"/>
-      <c r="QF5" s="115"/>
-      <c r="QG5" s="115"/>
-      <c r="QH5" s="115"/>
-      <c r="QI5" s="115"/>
-      <c r="QJ5" s="115"/>
-      <c r="QK5" s="115"/>
-      <c r="QL5" s="115"/>
-      <c r="QM5" s="115"/>
-      <c r="QN5" s="115"/>
-      <c r="QO5" s="115"/>
-      <c r="QP5" s="115"/>
-      <c r="QQ5" s="115"/>
-      <c r="QR5" s="115"/>
-      <c r="QS5" s="115"/>
-      <c r="QT5" s="115"/>
-      <c r="QU5" s="115"/>
-      <c r="QV5" s="115"/>
-      <c r="QW5" s="115"/>
-      <c r="QX5" s="115"/>
-      <c r="QY5" s="115"/>
-      <c r="QZ5" s="115"/>
-      <c r="RA5" s="115"/>
-      <c r="RB5" s="115"/>
-      <c r="RC5" s="115"/>
-      <c r="RD5" s="115"/>
-      <c r="RE5" s="115"/>
-      <c r="RF5" s="115"/>
-      <c r="RG5" s="115"/>
-      <c r="RH5" s="115"/>
-      <c r="RI5" s="115"/>
-      <c r="RJ5" s="115"/>
-      <c r="RK5" s="115"/>
-      <c r="RL5" s="115"/>
-      <c r="RM5" s="115"/>
-      <c r="RN5" s="115"/>
-      <c r="RO5" s="115"/>
-      <c r="RP5" s="115"/>
-      <c r="RQ5" s="115"/>
-      <c r="RR5" s="115"/>
-      <c r="RS5" s="115"/>
-      <c r="RT5" s="115"/>
-      <c r="RU5" s="115"/>
-      <c r="RV5" s="115"/>
-      <c r="RW5" s="115"/>
-      <c r="RX5" s="115"/>
-      <c r="RY5" s="115"/>
-      <c r="RZ5" s="115"/>
-      <c r="SA5" s="115"/>
-      <c r="SB5" s="115"/>
-      <c r="SC5" s="115"/>
-      <c r="SD5" s="115"/>
-      <c r="SE5" s="115"/>
-      <c r="SF5" s="115"/>
-      <c r="SG5" s="115"/>
-      <c r="SH5" s="115"/>
-      <c r="SI5" s="115"/>
-      <c r="SJ5" s="115"/>
-      <c r="SK5" s="115"/>
-      <c r="SL5" s="115"/>
-      <c r="SM5" s="115"/>
-      <c r="SN5" s="115"/>
-      <c r="SO5" s="115"/>
-      <c r="SP5" s="115"/>
-      <c r="SQ5" s="115"/>
-      <c r="SR5" s="115"/>
-      <c r="SS5" s="115"/>
-      <c r="ST5" s="115"/>
-      <c r="SU5" s="115"/>
-      <c r="SV5" s="115"/>
-      <c r="SW5" s="115"/>
-      <c r="SX5" s="115"/>
-      <c r="SY5" s="115"/>
-      <c r="SZ5" s="115"/>
-      <c r="TA5" s="115"/>
-      <c r="TB5" s="115"/>
-      <c r="TC5" s="115"/>
-      <c r="TD5" s="115"/>
-      <c r="TE5" s="115"/>
-      <c r="TF5" s="115"/>
-      <c r="TG5" s="115"/>
-      <c r="TH5" s="115"/>
-      <c r="TI5" s="115"/>
-      <c r="TJ5" s="115"/>
-      <c r="TK5" s="115"/>
-      <c r="TL5" s="115"/>
-      <c r="TM5" s="115"/>
-      <c r="TN5" s="115"/>
-      <c r="TO5" s="115"/>
-      <c r="TP5" s="115"/>
-      <c r="TQ5" s="115"/>
-      <c r="TR5" s="115"/>
-      <c r="TS5" s="115"/>
-      <c r="TT5" s="115"/>
-      <c r="TU5" s="115"/>
-      <c r="TV5" s="115"/>
-      <c r="TW5" s="115"/>
-      <c r="TX5" s="115"/>
-      <c r="TY5" s="115"/>
-      <c r="TZ5" s="115"/>
-      <c r="UA5" s="115"/>
-      <c r="UB5" s="115"/>
-      <c r="UC5" s="115"/>
-      <c r="UD5" s="115"/>
-      <c r="UE5" s="115"/>
-      <c r="UF5" s="115"/>
-      <c r="UG5" s="115"/>
-      <c r="UH5" s="115"/>
-      <c r="UI5" s="115"/>
-      <c r="UJ5" s="115"/>
-      <c r="UK5" s="115"/>
-      <c r="UL5" s="115"/>
-      <c r="UM5" s="115"/>
-      <c r="UN5" s="115"/>
-      <c r="UO5" s="115"/>
-      <c r="UP5" s="115"/>
-      <c r="UQ5" s="115"/>
-      <c r="UR5" s="115"/>
-      <c r="US5" s="115"/>
-      <c r="UT5" s="115"/>
-      <c r="UU5" s="115"/>
-      <c r="UV5" s="115"/>
-      <c r="UW5" s="115"/>
-      <c r="UX5" s="115"/>
-      <c r="UY5" s="115"/>
-      <c r="UZ5" s="115"/>
-      <c r="VA5" s="115"/>
-      <c r="VB5" s="115"/>
-      <c r="VC5" s="115"/>
-      <c r="VD5" s="115"/>
-      <c r="VE5" s="115"/>
-      <c r="VF5" s="115"/>
-      <c r="VG5" s="115"/>
-      <c r="VH5" s="115"/>
-      <c r="VI5" s="115"/>
-      <c r="VJ5" s="115"/>
-      <c r="VK5" s="115"/>
-      <c r="VL5" s="115"/>
-      <c r="VM5" s="115"/>
-      <c r="VN5" s="115"/>
-      <c r="VO5" s="115"/>
-      <c r="VP5" s="115"/>
-      <c r="VQ5" s="115"/>
-      <c r="VR5" s="115"/>
-      <c r="VS5" s="115"/>
-      <c r="VT5" s="115"/>
-      <c r="VU5" s="115"/>
-      <c r="VV5" s="115"/>
-      <c r="VW5" s="115"/>
-      <c r="VX5" s="115"/>
-      <c r="VY5" s="115"/>
-      <c r="VZ5" s="115"/>
-      <c r="WA5" s="115"/>
-      <c r="WB5" s="115"/>
-      <c r="WC5" s="115"/>
-      <c r="WD5" s="115"/>
-      <c r="WE5" s="115"/>
-      <c r="WF5" s="115"/>
-      <c r="WG5" s="115"/>
-      <c r="WH5" s="115"/>
-      <c r="WI5" s="115"/>
-      <c r="WJ5" s="115"/>
-      <c r="WK5" s="115"/>
-      <c r="WL5" s="115"/>
-      <c r="WM5" s="115"/>
-      <c r="WN5" s="115"/>
-      <c r="WO5" s="115"/>
-      <c r="WP5" s="115"/>
-      <c r="WQ5" s="115"/>
-      <c r="WR5" s="115"/>
-      <c r="WS5" s="115"/>
-      <c r="WT5" s="115"/>
-      <c r="WU5" s="115"/>
-      <c r="WV5" s="115"/>
-      <c r="WW5" s="115"/>
-      <c r="WX5" s="115"/>
-      <c r="WY5" s="115"/>
-      <c r="WZ5" s="115"/>
-      <c r="XA5" s="115"/>
-      <c r="XB5" s="115"/>
-      <c r="XC5" s="115"/>
-      <c r="XD5" s="115"/>
-      <c r="XE5" s="115"/>
-      <c r="XF5" s="115"/>
-      <c r="XG5" s="115"/>
-      <c r="XH5" s="115"/>
-      <c r="XI5" s="115"/>
-      <c r="XJ5" s="115"/>
-      <c r="XK5" s="115"/>
-      <c r="XL5" s="115"/>
-      <c r="XM5" s="115"/>
-      <c r="XN5" s="115"/>
-      <c r="XO5" s="115"/>
-      <c r="XP5" s="115"/>
-      <c r="XQ5" s="115"/>
-      <c r="XR5" s="115"/>
-      <c r="XS5" s="115"/>
-      <c r="XT5" s="115"/>
-      <c r="XU5" s="115"/>
-      <c r="XV5" s="115"/>
-      <c r="XW5" s="115"/>
-      <c r="XX5" s="115"/>
-      <c r="XY5" s="115"/>
-      <c r="XZ5" s="115"/>
-      <c r="YA5" s="115"/>
-      <c r="YB5" s="115"/>
-      <c r="YC5" s="115"/>
-      <c r="YD5" s="115"/>
-      <c r="YE5" s="115"/>
-      <c r="YF5" s="115"/>
-      <c r="YG5" s="115"/>
-      <c r="YH5" s="115"/>
-      <c r="YI5" s="115"/>
-      <c r="YJ5" s="115"/>
-      <c r="YK5" s="115"/>
-      <c r="YL5" s="115"/>
-      <c r="YM5" s="115"/>
-      <c r="YN5" s="115"/>
-      <c r="YO5" s="115"/>
-      <c r="YP5" s="115"/>
-      <c r="YQ5" s="115"/>
-      <c r="YR5" s="115"/>
-      <c r="YS5" s="115"/>
-      <c r="YT5" s="115"/>
-      <c r="YU5" s="115"/>
-      <c r="YV5" s="115"/>
-      <c r="YW5" s="115"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="50"/>
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50"/>
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="50"/>
+      <c r="BV5" s="50"/>
+      <c r="BW5" s="50"/>
+      <c r="BX5" s="50"/>
+      <c r="BY5" s="50"/>
+      <c r="BZ5" s="50"/>
+      <c r="CA5" s="50"/>
+      <c r="CB5" s="50"/>
+      <c r="CC5" s="50"/>
+      <c r="CD5" s="50"/>
+      <c r="CE5" s="50"/>
+      <c r="CF5" s="50"/>
+      <c r="CG5" s="50"/>
+      <c r="CH5" s="50"/>
+      <c r="CI5" s="50"/>
+      <c r="CJ5" s="50"/>
+      <c r="CK5" s="50"/>
+      <c r="CL5" s="50"/>
+      <c r="CM5" s="50"/>
+      <c r="CN5" s="50"/>
+      <c r="CO5" s="50"/>
+      <c r="CP5" s="50"/>
+      <c r="CQ5" s="50"/>
+      <c r="CR5" s="50"/>
+      <c r="CS5" s="50"/>
+      <c r="CT5" s="50"/>
+      <c r="CU5" s="50"/>
+      <c r="CV5" s="50"/>
+      <c r="CW5" s="50"/>
+      <c r="CX5" s="50"/>
+      <c r="CY5" s="50"/>
+      <c r="CZ5" s="50"/>
+      <c r="DA5" s="50"/>
+      <c r="DB5" s="50"/>
+      <c r="DC5" s="50"/>
+      <c r="DD5" s="50"/>
+      <c r="DE5" s="50"/>
+      <c r="DF5" s="50"/>
+      <c r="DG5" s="50"/>
+      <c r="DH5" s="50"/>
+      <c r="DI5" s="50"/>
+      <c r="DJ5" s="50"/>
+      <c r="DK5" s="50"/>
+      <c r="DL5" s="50"/>
+      <c r="DM5" s="50"/>
+      <c r="DN5" s="50"/>
+      <c r="DO5" s="50"/>
+      <c r="DP5" s="50"/>
+      <c r="DQ5" s="50"/>
+      <c r="DR5" s="50"/>
+      <c r="DS5" s="50"/>
+      <c r="DT5" s="50"/>
+      <c r="DU5" s="50"/>
+      <c r="DV5" s="50"/>
+      <c r="DW5" s="50"/>
+      <c r="DX5" s="50"/>
+      <c r="DY5" s="50"/>
+      <c r="DZ5" s="50"/>
+      <c r="EA5" s="50"/>
+      <c r="EB5" s="50"/>
+      <c r="EC5" s="50"/>
+      <c r="ED5" s="50"/>
+      <c r="EE5" s="50"/>
+      <c r="EF5" s="50"/>
+      <c r="EG5" s="50"/>
+      <c r="EH5" s="50"/>
+      <c r="EI5" s="50"/>
+      <c r="EJ5" s="50"/>
+      <c r="EK5" s="50"/>
+      <c r="EL5" s="50"/>
+      <c r="EM5" s="50"/>
+      <c r="EN5" s="50"/>
+      <c r="EO5" s="50"/>
+      <c r="EP5" s="50"/>
+      <c r="EQ5" s="50"/>
+      <c r="ER5" s="50"/>
+      <c r="ES5" s="50"/>
+      <c r="ET5" s="50"/>
+      <c r="EU5" s="50"/>
+      <c r="EV5" s="50"/>
+      <c r="EW5" s="50"/>
+      <c r="EX5" s="50"/>
+      <c r="EY5" s="50"/>
+      <c r="EZ5" s="50"/>
+      <c r="FA5" s="50"/>
+      <c r="FB5" s="50"/>
+      <c r="FC5" s="50"/>
+      <c r="FD5" s="50"/>
+      <c r="FE5" s="50"/>
+      <c r="FF5" s="50"/>
+      <c r="FG5" s="50"/>
+      <c r="FH5" s="50"/>
+      <c r="FI5" s="50"/>
+      <c r="FJ5" s="50"/>
+      <c r="FK5" s="50"/>
+      <c r="FL5" s="50"/>
+      <c r="FM5" s="50"/>
+      <c r="FN5" s="50"/>
+      <c r="FO5" s="50"/>
+      <c r="FP5" s="50"/>
+      <c r="FQ5" s="50"/>
+      <c r="FR5" s="50"/>
+      <c r="FS5" s="50"/>
+      <c r="FT5" s="50"/>
+      <c r="FU5" s="50"/>
+      <c r="FV5" s="50"/>
+      <c r="FW5" s="50"/>
+      <c r="FX5" s="50"/>
+      <c r="FY5" s="50"/>
+      <c r="FZ5" s="50"/>
+      <c r="GA5" s="50"/>
+      <c r="GB5" s="50"/>
+      <c r="GC5" s="50"/>
+      <c r="GD5" s="50"/>
+      <c r="GE5" s="50"/>
+      <c r="GF5" s="50"/>
+      <c r="GG5" s="50"/>
+      <c r="GH5" s="50"/>
+      <c r="GI5" s="50"/>
+      <c r="GJ5" s="50"/>
+      <c r="GK5" s="50"/>
+      <c r="GL5" s="50"/>
+      <c r="GM5" s="50"/>
+      <c r="GN5" s="50"/>
+      <c r="GO5" s="50"/>
+      <c r="GP5" s="50"/>
+      <c r="GQ5" s="50"/>
+      <c r="GR5" s="50"/>
+      <c r="GS5" s="50"/>
+      <c r="GT5" s="50"/>
+      <c r="GU5" s="50"/>
+      <c r="GV5" s="50"/>
+      <c r="GW5" s="50"/>
+      <c r="GX5" s="50"/>
+      <c r="GY5" s="50"/>
+      <c r="GZ5" s="50"/>
+      <c r="HA5" s="50"/>
+      <c r="HB5" s="50"/>
+      <c r="HC5" s="50"/>
+      <c r="HD5" s="50"/>
+      <c r="HE5" s="50"/>
+      <c r="HF5" s="50"/>
+      <c r="HG5" s="50"/>
+      <c r="HH5" s="50"/>
+      <c r="HI5" s="50"/>
+      <c r="HJ5" s="50"/>
+      <c r="HK5" s="50"/>
+      <c r="HL5" s="50"/>
+      <c r="HM5" s="50"/>
+      <c r="HN5" s="50"/>
+      <c r="HO5" s="50"/>
+      <c r="HP5" s="50"/>
+      <c r="HQ5" s="50"/>
+      <c r="HR5" s="50"/>
+      <c r="HS5" s="50"/>
+      <c r="HT5" s="50"/>
+      <c r="HU5" s="50"/>
+      <c r="HV5" s="50"/>
+      <c r="HW5" s="50"/>
+      <c r="HX5" s="50"/>
+      <c r="HY5" s="50"/>
+      <c r="HZ5" s="50"/>
+      <c r="IA5" s="50"/>
+      <c r="IB5" s="50"/>
+      <c r="IC5" s="50"/>
+      <c r="ID5" s="50"/>
+      <c r="IE5" s="50"/>
+      <c r="IF5" s="50"/>
+      <c r="IG5" s="50"/>
+      <c r="IH5" s="50"/>
+      <c r="II5" s="50"/>
+      <c r="IJ5" s="50"/>
+      <c r="IK5" s="50"/>
+      <c r="IL5" s="50"/>
+      <c r="IM5" s="50"/>
+      <c r="IN5" s="50"/>
+      <c r="IO5" s="50"/>
+      <c r="IP5" s="50"/>
+      <c r="IQ5" s="50"/>
+      <c r="IR5" s="50"/>
+      <c r="IS5" s="50"/>
+      <c r="IT5" s="50"/>
+      <c r="IU5" s="50"/>
+      <c r="IV5" s="50"/>
+      <c r="IW5" s="50"/>
+      <c r="IX5" s="50"/>
+      <c r="IY5" s="50"/>
+      <c r="IZ5" s="50"/>
+      <c r="JA5" s="50"/>
+      <c r="JB5" s="50"/>
+      <c r="JC5" s="50"/>
+      <c r="JD5" s="50"/>
+      <c r="JE5" s="50"/>
+      <c r="JF5" s="50"/>
+      <c r="JG5" s="50"/>
+      <c r="JH5" s="50"/>
+      <c r="JI5" s="50"/>
+      <c r="JJ5" s="50"/>
+      <c r="JK5" s="50"/>
+      <c r="JL5" s="50"/>
+      <c r="JM5" s="50"/>
+      <c r="JN5" s="50"/>
+      <c r="JO5" s="50"/>
+      <c r="JP5" s="50"/>
+      <c r="JQ5" s="50"/>
+      <c r="JR5" s="50"/>
+      <c r="JS5" s="50"/>
+      <c r="JT5" s="50"/>
+      <c r="JU5" s="50"/>
+      <c r="JV5" s="50"/>
+      <c r="JW5" s="50"/>
+      <c r="JX5" s="50"/>
+      <c r="JY5" s="50"/>
+      <c r="JZ5" s="50"/>
+      <c r="KA5" s="50"/>
+      <c r="KB5" s="50"/>
+      <c r="KC5" s="50"/>
+      <c r="KD5" s="50"/>
+      <c r="KE5" s="50"/>
+      <c r="KF5" s="50"/>
+      <c r="KG5" s="50"/>
+      <c r="KH5" s="50"/>
+      <c r="KI5" s="50"/>
+      <c r="KJ5" s="50"/>
+      <c r="KK5" s="50"/>
+      <c r="KL5" s="50"/>
+      <c r="KM5" s="50"/>
+      <c r="KN5" s="50"/>
+      <c r="KO5" s="50"/>
+      <c r="KP5" s="50"/>
+      <c r="KQ5" s="50"/>
+      <c r="KR5" s="50"/>
+      <c r="KS5" s="50"/>
+      <c r="KT5" s="50"/>
+      <c r="KU5" s="50"/>
+      <c r="KV5" s="50"/>
+      <c r="KW5" s="50"/>
+      <c r="KX5" s="50"/>
+      <c r="KY5" s="50"/>
+      <c r="KZ5" s="50"/>
+      <c r="LA5" s="50"/>
+      <c r="LB5" s="50"/>
+      <c r="LC5" s="50"/>
+      <c r="LD5" s="50"/>
+      <c r="LE5" s="50"/>
+      <c r="LF5" s="50"/>
+      <c r="LG5" s="50"/>
+      <c r="LH5" s="50"/>
+      <c r="LI5" s="50"/>
+      <c r="LJ5" s="50"/>
+      <c r="LK5" s="50"/>
+      <c r="LL5" s="50"/>
+      <c r="LM5" s="50"/>
+      <c r="LN5" s="50"/>
+      <c r="LO5" s="50"/>
+      <c r="LP5" s="50"/>
+      <c r="LQ5" s="50"/>
+      <c r="LR5" s="50"/>
+      <c r="LS5" s="50"/>
+      <c r="LT5" s="50"/>
+      <c r="LU5" s="50"/>
+      <c r="LV5" s="50"/>
+      <c r="LW5" s="50"/>
+      <c r="LX5" s="50"/>
+      <c r="LY5" s="50"/>
+      <c r="LZ5" s="50"/>
+      <c r="MA5" s="50"/>
+      <c r="MB5" s="50"/>
+      <c r="MC5" s="50"/>
+      <c r="MD5" s="50"/>
+      <c r="ME5" s="50"/>
+      <c r="MF5" s="50"/>
+      <c r="MG5" s="50"/>
+      <c r="MH5" s="50"/>
+      <c r="MI5" s="50"/>
+      <c r="MJ5" s="50"/>
+      <c r="MK5" s="50"/>
+      <c r="ML5" s="50"/>
+      <c r="MM5" s="50"/>
+      <c r="MN5" s="50"/>
+      <c r="MO5" s="50"/>
+      <c r="MP5" s="50"/>
+      <c r="MQ5" s="50"/>
+      <c r="MR5" s="50"/>
+      <c r="MS5" s="50"/>
+      <c r="MT5" s="50"/>
+      <c r="MU5" s="50"/>
+      <c r="MV5" s="50"/>
+      <c r="MW5" s="50"/>
+      <c r="MX5" s="50"/>
+      <c r="MY5" s="50"/>
+      <c r="MZ5" s="50"/>
+      <c r="NA5" s="50"/>
+      <c r="NB5" s="50"/>
+      <c r="NC5" s="50"/>
+      <c r="ND5" s="50"/>
+      <c r="NE5" s="50"/>
+      <c r="NF5" s="50"/>
+      <c r="NG5" s="50"/>
+      <c r="NH5" s="50"/>
+      <c r="NI5" s="50"/>
+      <c r="NJ5" s="50"/>
+      <c r="NK5" s="50"/>
+      <c r="NL5" s="50"/>
+      <c r="NM5" s="50"/>
+      <c r="NN5" s="50"/>
+      <c r="NO5" s="50"/>
+      <c r="NP5" s="50"/>
+      <c r="NQ5" s="50"/>
+      <c r="NR5" s="50"/>
+      <c r="NS5" s="50"/>
+      <c r="NT5" s="50"/>
+      <c r="NU5" s="50"/>
+      <c r="NV5" s="50"/>
+      <c r="NW5" s="50"/>
+      <c r="NX5" s="50"/>
+      <c r="NY5" s="50"/>
+      <c r="NZ5" s="50"/>
+      <c r="OA5" s="50"/>
+      <c r="OB5" s="50"/>
+      <c r="OC5" s="50"/>
+      <c r="OD5" s="50"/>
+      <c r="OE5" s="50"/>
+      <c r="OF5" s="50"/>
+      <c r="OG5" s="50"/>
+      <c r="OH5" s="50"/>
+      <c r="OI5" s="50"/>
+      <c r="OJ5" s="50"/>
+      <c r="OK5" s="50"/>
+      <c r="OL5" s="50"/>
+      <c r="OM5" s="50"/>
+      <c r="ON5" s="50"/>
+      <c r="OO5" s="50"/>
+      <c r="OP5" s="50"/>
+      <c r="OQ5" s="50"/>
+      <c r="OR5" s="50"/>
+      <c r="OS5" s="50"/>
+      <c r="OT5" s="50"/>
+      <c r="OU5" s="50"/>
+      <c r="OV5" s="50"/>
+      <c r="OW5" s="50"/>
+      <c r="OX5" s="50"/>
+      <c r="OY5" s="50"/>
+      <c r="OZ5" s="50"/>
+      <c r="PA5" s="50"/>
+      <c r="PB5" s="50"/>
+      <c r="PC5" s="50"/>
+      <c r="PD5" s="50"/>
+      <c r="PE5" s="50"/>
+      <c r="PF5" s="50"/>
+      <c r="PG5" s="50"/>
+      <c r="PH5" s="50"/>
+      <c r="PI5" s="50"/>
+      <c r="PJ5" s="50"/>
+      <c r="PK5" s="50"/>
+      <c r="PL5" s="50"/>
+      <c r="PM5" s="50"/>
+      <c r="PN5" s="50"/>
+      <c r="PO5" s="50"/>
+      <c r="PP5" s="50"/>
+      <c r="PQ5" s="50"/>
+      <c r="PR5" s="50"/>
+      <c r="PS5" s="50"/>
+      <c r="PT5" s="50"/>
+      <c r="PU5" s="50"/>
+      <c r="PV5" s="50"/>
+      <c r="PW5" s="50"/>
+      <c r="PX5" s="50"/>
+      <c r="PY5" s="50"/>
+      <c r="PZ5" s="50"/>
+      <c r="QA5" s="50"/>
+      <c r="QB5" s="50"/>
+      <c r="QC5" s="50"/>
+      <c r="QD5" s="50"/>
+      <c r="QE5" s="50"/>
+      <c r="QF5" s="50"/>
+      <c r="QG5" s="50"/>
+      <c r="QH5" s="50"/>
+      <c r="QI5" s="50"/>
+      <c r="QJ5" s="50"/>
+      <c r="QK5" s="50"/>
+      <c r="QL5" s="50"/>
+      <c r="QM5" s="50"/>
+      <c r="QN5" s="50"/>
+      <c r="QO5" s="50"/>
+      <c r="QP5" s="50"/>
+      <c r="QQ5" s="50"/>
+      <c r="QR5" s="50"/>
+      <c r="QS5" s="50"/>
+      <c r="QT5" s="50"/>
+      <c r="QU5" s="50"/>
+      <c r="QV5" s="50"/>
+      <c r="QW5" s="50"/>
+      <c r="QX5" s="50"/>
+      <c r="QY5" s="50"/>
+      <c r="QZ5" s="50"/>
+      <c r="RA5" s="50"/>
+      <c r="RB5" s="50"/>
+      <c r="RC5" s="50"/>
+      <c r="RD5" s="50"/>
+      <c r="RE5" s="50"/>
+      <c r="RF5" s="50"/>
+      <c r="RG5" s="50"/>
+      <c r="RH5" s="50"/>
+      <c r="RI5" s="50"/>
+      <c r="RJ5" s="50"/>
+      <c r="RK5" s="50"/>
+      <c r="RL5" s="50"/>
+      <c r="RM5" s="50"/>
+      <c r="RN5" s="50"/>
+      <c r="RO5" s="50"/>
+      <c r="RP5" s="50"/>
+      <c r="RQ5" s="50"/>
+      <c r="RR5" s="50"/>
+      <c r="RS5" s="50"/>
+      <c r="RT5" s="50"/>
+      <c r="RU5" s="50"/>
+      <c r="RV5" s="50"/>
+      <c r="RW5" s="50"/>
+      <c r="RX5" s="50"/>
+      <c r="RY5" s="50"/>
+      <c r="RZ5" s="50"/>
+      <c r="SA5" s="50"/>
+      <c r="SB5" s="50"/>
+      <c r="SC5" s="50"/>
+      <c r="SD5" s="50"/>
+      <c r="SE5" s="50"/>
+      <c r="SF5" s="50"/>
+      <c r="SG5" s="50"/>
+      <c r="SH5" s="50"/>
+      <c r="SI5" s="50"/>
+      <c r="SJ5" s="50"/>
+      <c r="SK5" s="50"/>
+      <c r="SL5" s="50"/>
+      <c r="SM5" s="50"/>
+      <c r="SN5" s="50"/>
+      <c r="SO5" s="50"/>
+      <c r="SP5" s="50"/>
+      <c r="SQ5" s="50"/>
+      <c r="SR5" s="50"/>
+      <c r="SS5" s="50"/>
+      <c r="ST5" s="50"/>
+      <c r="SU5" s="50"/>
+      <c r="SV5" s="50"/>
+      <c r="SW5" s="50"/>
+      <c r="SX5" s="50"/>
+      <c r="SY5" s="50"/>
+      <c r="SZ5" s="50"/>
+      <c r="TA5" s="50"/>
+      <c r="TB5" s="50"/>
+      <c r="TC5" s="50"/>
+      <c r="TD5" s="50"/>
+      <c r="TE5" s="50"/>
+      <c r="TF5" s="50"/>
+      <c r="TG5" s="50"/>
+      <c r="TH5" s="50"/>
+      <c r="TI5" s="50"/>
+      <c r="TJ5" s="50"/>
+      <c r="TK5" s="50"/>
+      <c r="TL5" s="50"/>
+      <c r="TM5" s="50"/>
+      <c r="TN5" s="50"/>
+      <c r="TO5" s="50"/>
+      <c r="TP5" s="50"/>
+      <c r="TQ5" s="50"/>
+      <c r="TR5" s="50"/>
+      <c r="TS5" s="50"/>
+      <c r="TT5" s="50"/>
+      <c r="TU5" s="50"/>
+      <c r="TV5" s="50"/>
+      <c r="TW5" s="50"/>
+      <c r="TX5" s="50"/>
+      <c r="TY5" s="50"/>
+      <c r="TZ5" s="50"/>
+      <c r="UA5" s="50"/>
+      <c r="UB5" s="50"/>
+      <c r="UC5" s="50"/>
+      <c r="UD5" s="50"/>
+      <c r="UE5" s="50"/>
+      <c r="UF5" s="50"/>
+      <c r="UG5" s="50"/>
+      <c r="UH5" s="50"/>
+      <c r="UI5" s="50"/>
+      <c r="UJ5" s="50"/>
+      <c r="UK5" s="50"/>
+      <c r="UL5" s="50"/>
+      <c r="UM5" s="50"/>
+      <c r="UN5" s="50"/>
+      <c r="UO5" s="50"/>
+      <c r="UP5" s="50"/>
+      <c r="UQ5" s="50"/>
+      <c r="UR5" s="50"/>
+      <c r="US5" s="50"/>
+      <c r="UT5" s="50"/>
+      <c r="UU5" s="50"/>
+      <c r="UV5" s="50"/>
+      <c r="UW5" s="50"/>
+      <c r="UX5" s="50"/>
+      <c r="UY5" s="50"/>
+      <c r="UZ5" s="50"/>
+      <c r="VA5" s="50"/>
+      <c r="VB5" s="50"/>
+      <c r="VC5" s="50"/>
+      <c r="VD5" s="50"/>
+      <c r="VE5" s="50"/>
+      <c r="VF5" s="50"/>
+      <c r="VG5" s="50"/>
+      <c r="VH5" s="50"/>
+      <c r="VI5" s="50"/>
+      <c r="VJ5" s="50"/>
+      <c r="VK5" s="50"/>
+      <c r="VL5" s="50"/>
+      <c r="VM5" s="50"/>
+      <c r="VN5" s="50"/>
+      <c r="VO5" s="50"/>
+      <c r="VP5" s="50"/>
+      <c r="VQ5" s="50"/>
+      <c r="VR5" s="50"/>
+      <c r="VS5" s="50"/>
+      <c r="VT5" s="50"/>
+      <c r="VU5" s="50"/>
+      <c r="VV5" s="50"/>
+      <c r="VW5" s="50"/>
+      <c r="VX5" s="50"/>
+      <c r="VY5" s="50"/>
+      <c r="VZ5" s="50"/>
+      <c r="WA5" s="50"/>
+      <c r="WB5" s="50"/>
+      <c r="WC5" s="50"/>
+      <c r="WD5" s="50"/>
+      <c r="WE5" s="50"/>
+      <c r="WF5" s="50"/>
+      <c r="WG5" s="50"/>
+      <c r="WH5" s="50"/>
+      <c r="WI5" s="50"/>
+      <c r="WJ5" s="50"/>
+      <c r="WK5" s="50"/>
+      <c r="WL5" s="50"/>
+      <c r="WM5" s="50"/>
+      <c r="WN5" s="50"/>
+      <c r="WO5" s="50"/>
+      <c r="WP5" s="50"/>
+      <c r="WQ5" s="50"/>
+      <c r="WR5" s="50"/>
+      <c r="WS5" s="50"/>
+      <c r="WT5" s="50"/>
+      <c r="WU5" s="50"/>
+      <c r="WV5" s="50"/>
+      <c r="WW5" s="50"/>
+      <c r="WX5" s="50"/>
+      <c r="WY5" s="50"/>
+      <c r="WZ5" s="50"/>
+      <c r="XA5" s="50"/>
+      <c r="XB5" s="50"/>
+      <c r="XC5" s="50"/>
+      <c r="XD5" s="50"/>
+      <c r="XE5" s="50"/>
+      <c r="XF5" s="50"/>
+      <c r="XG5" s="50"/>
+      <c r="XH5" s="50"/>
+      <c r="XI5" s="50"/>
+      <c r="XJ5" s="50"/>
+      <c r="XK5" s="50"/>
+      <c r="XL5" s="50"/>
+      <c r="XM5" s="50"/>
+      <c r="XN5" s="50"/>
+      <c r="XO5" s="50"/>
+      <c r="XP5" s="50"/>
+      <c r="XQ5" s="50"/>
+      <c r="XR5" s="50"/>
+      <c r="XS5" s="50"/>
+      <c r="XT5" s="50"/>
+      <c r="XU5" s="50"/>
+      <c r="XV5" s="50"/>
+      <c r="XW5" s="50"/>
+      <c r="XX5" s="50"/>
+      <c r="XY5" s="50"/>
+      <c r="XZ5" s="50"/>
+      <c r="YA5" s="50"/>
+      <c r="YB5" s="50"/>
+      <c r="YC5" s="50"/>
+      <c r="YD5" s="50"/>
+      <c r="YE5" s="50"/>
+      <c r="YF5" s="50"/>
+      <c r="YG5" s="50"/>
+      <c r="YH5" s="50"/>
+      <c r="YI5" s="50"/>
+      <c r="YJ5" s="50"/>
+      <c r="YK5" s="50"/>
+      <c r="YL5" s="50"/>
+      <c r="YM5" s="50"/>
+      <c r="YN5" s="50"/>
+      <c r="YO5" s="50"/>
+      <c r="YP5" s="50"/>
+      <c r="YQ5" s="50"/>
+      <c r="YR5" s="50"/>
+      <c r="YS5" s="50"/>
+      <c r="YT5" s="50"/>
+      <c r="YU5" s="50"/>
+      <c r="YV5" s="50"/>
+      <c r="YW5" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AF4"/>
+    <mergeCell ref="AG3:AK4"/>
+    <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AK1"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AF4"/>
-    <mergeCell ref="AG3:AK4"/>
-    <mergeCell ref="Z4:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
